--- a/2. Questions/Questions and Answers.xlsx
+++ b/2. Questions/Questions and Answers.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\NLP_Student_Manual_Chatbot\2. Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1D455-6437-425B-BBF0-5B74C807598F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA3EA6-F09F-4FBC-BF9B-0A97A5295B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
     <sheet name="Sections" sheetId="2" r:id="rId2"/>
-    <sheet name="Articles" sheetId="4" r:id="rId3"/>
+    <sheet name="Abbreviations" sheetId="5" r:id="rId3"/>
+    <sheet name="Articles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="265">
   <si>
     <t>QUESTION</t>
   </si>
@@ -112,9 +113,6 @@
     <t>TOPIC</t>
   </si>
   <si>
-    <t>What is the full name of USC?</t>
-  </si>
-  <si>
     <t>University of San Carlos</t>
   </si>
   <si>
@@ -266,13 +264,594 @@
   </si>
   <si>
     <t>Additional Enrollment Steps (Scholarship and Financial Assistance)</t>
+  </si>
+  <si>
+    <t>Society of the Divine Word (SVD) missionaries</t>
+  </si>
+  <si>
+    <t>How many campuses does the university have?</t>
+  </si>
+  <si>
+    <t>North Campus, South Campus, Talamban Campus, Downtown Campus, Montessori Campus</t>
+  </si>
+  <si>
+    <t>ABBREVIATION</t>
+  </si>
+  <si>
+    <t>MEANING</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>SVD</t>
+  </si>
+  <si>
+    <t>Society of the Divine Word</t>
+  </si>
+  <si>
+    <t>PAASCU</t>
+  </si>
+  <si>
+    <t>Philippine Accrediting Association of Schools, Colleges, and Universities</t>
+  </si>
+  <si>
+    <t>PTC-ACBET</t>
+  </si>
+  <si>
+    <t>Philippine Technological Council-Accreditation and Certification Board for Engineering and Technology</t>
+  </si>
+  <si>
+    <t>CHED</t>
+  </si>
+  <si>
+    <t>Commission on Higher Education</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Center of Excellence</t>
+  </si>
+  <si>
+    <t>Center of Development</t>
+  </si>
+  <si>
+    <t>How many engineering programs are accredited by the Philippine Technological Council-Accreditation and Certification Board for Engineering and Technology?</t>
+  </si>
+  <si>
+    <t>How many Centers of Excellence did the Commission on Higher Education grant to USC?</t>
+  </si>
+  <si>
+    <t>451 to 500 in QS University Rankings for Asia 2021 and 7 among the 100 best universities in the Philippines in 2023 per EduRank</t>
+  </si>
+  <si>
+    <t>What is the ranking of University of San Carlos?</t>
+  </si>
+  <si>
+    <t>What is the university's ranking based on?</t>
+  </si>
+  <si>
+    <t>research outputs, non-academic prominence, non
+academic performance and alumni influence</t>
+  </si>
+  <si>
+    <t>How much external research grants has the university drawn?</t>
+  </si>
+  <si>
+    <t>What are the campuses of the university?</t>
+  </si>
+  <si>
+    <t>PHP298M (~USD5.68M) between AY 2018-2021</t>
+  </si>
+  <si>
+    <t>How many secondary journals did the university publish?</t>
+  </si>
+  <si>
+    <t>What are the secondary journals published by the university?</t>
+  </si>
+  <si>
+    <t>The Philippine Scientist, the Philippine Quarterly of Culture and Society, and Devotio: Journal of Business and Economic Studies</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Twelve</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>How are additional support for researchers available?</t>
+  </si>
+  <si>
+    <t>through offices or committees providing ethics review, intellectual property and innovation and technology support, and animal care and use</t>
+  </si>
+  <si>
+    <t>What journals does the University's library system subscribe to?</t>
+  </si>
+  <si>
+    <t>Web of Science and Science Direct</t>
+  </si>
+  <si>
+    <t>How many patents have been filed by the university?</t>
+  </si>
+  <si>
+    <t>Nineteen</t>
+  </si>
+  <si>
+    <t>How many undergraduate and graduate scholars does the university have at any given time?</t>
+  </si>
+  <si>
+    <t>More than 600</t>
+  </si>
+  <si>
+    <t>The university has been designated as a Donee Institution since when?</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>When did the University of San Carlos become a university?</t>
+  </si>
+  <si>
+    <t>Who first administered the university?</t>
+  </si>
+  <si>
+    <t>When was the university first administered?</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>Quacquarelli Symonds</t>
+  </si>
+  <si>
+    <t>What are the two statements that the university's catholic identity is embodied in?</t>
+  </si>
+  <si>
+    <t>Education with a Mission and Witness to the Word</t>
+  </si>
+  <si>
+    <t>What is the vision of the university?</t>
+  </si>
+  <si>
+    <t>What is the mission of the university?</t>
+  </si>
+  <si>
+    <t>What are the core values of the university?</t>
+  </si>
+  <si>
+    <t>The University of San Carlos sees:
+ • a WORLD where the darkness of sin and the night of unbelief vanish 
+before the light of the Word and the Spirit of grace
+ • a SOCIETY where citizens are competent, noble in character, and 
+community-oriented
+ • what they know, they apply justly and honestly;
+ • what they do not know, they seek to learn;
+ • what they do not have, they endeavor to acquire;
+ • what they have, they share</t>
+  </si>
+  <si>
+    <t>What does scientia mean?</t>
+  </si>
+  <si>
+    <t>professionally competent and skilled</t>
+  </si>
+  <si>
+    <t>What does virtus mean?</t>
+  </si>
+  <si>
+    <t>noble character and are value-driven</t>
+  </si>
+  <si>
+    <t>What does devotio mean?</t>
+  </si>
+  <si>
+    <t>dedicated to social transformation</t>
+  </si>
+  <si>
+    <t>Integrity; Excellence; Commitment; Social responsibility; Evangelization; and Leadership</t>
+  </si>
+  <si>
+    <t>The University of San Carlos is a Catholic institution of learning that embodies the principles of academic discipline of San Carlos Borromeo and the missionary charism of the Society of the Divine Word (SVD). 
+It aims to develop competent and socially responsible professionals and lifelong learners in an environment that fosters excellence in the academic core processes of teaching-learning, research, and community extension service. 
+Its mission is to provide timely, relevant, and transformative academic programs responsive to the needs of the local, national, and global communities in a rapidly changing world.</t>
+  </si>
+  <si>
+    <t>What does integrity mean?</t>
+  </si>
+  <si>
+    <t>Carolinians shall reflect in their personal and professional life the ideals of the Catholic university as “an academic community, which, in a rigorous and critical fashion, assists in the protection and advancement of human dignity and of a cultural heritage through research, teaching and extension services to the local, national and international communities”</t>
+  </si>
+  <si>
+    <t>What does excellence mean?</t>
+  </si>
+  <si>
+    <t>Carolinians shall constantly strive to attain the highest standards in their respective fields.</t>
+  </si>
+  <si>
+    <t>What does commitment mean?</t>
+  </si>
+  <si>
+    <t>Carolinians shall bear in mind that the ultimate goal of the University is the transformation of communities, especially in the Visayas and Mindanao, through the provision of quality basic and higher education.</t>
+  </si>
+  <si>
+    <t>What does social responsibility mean?</t>
+  </si>
+  <si>
+    <t>Carolinians shall strive to provide themselves and the students an understanding of and effective tools for addressing the prevailing social realities in the country. As far as possible, they shall volunteer their expertise and contribute to effective social and civic programs in the local community, through initiatives organized by themselves, their respective departments and relevant external organizations.</t>
+  </si>
+  <si>
+    <t>What does evangelization mean?</t>
+  </si>
+  <si>
+    <t>Carolinians shall seek to understand the values and mores of local cultures and enrich them through gospel values and the teachings of the Church. In a privileged manner, they shall, in solidarity with the Philippines Southern Province of the Society of Divine Word, support the missionary apostolate in the Visayas and Mindanao.</t>
+  </si>
+  <si>
+    <t>What does leadership mean?</t>
+  </si>
+  <si>
+    <t>Carolinians, not only in positions of authority but also in their own personal capacity, shall strive to set the conditions for reflection and learning on their respective educational tasks, both in their departments and in the local community, foster norms of behavior befitting a Witness to the Word and exhibit these norms in their own way of life.</t>
+  </si>
+  <si>
+    <t>What does the university seal depict?</t>
+  </si>
+  <si>
+    <t>a shield on either side by seven laurel leaves</t>
+  </si>
+  <si>
+    <t>What do the laurel leaves stand for?</t>
+  </si>
+  <si>
+    <t>wisdom, understanding, counsel, fortitude, knowledge, piety, and fear of the Lord</t>
+  </si>
+  <si>
+    <t>What do the three parts of the shield symbolize?</t>
+  </si>
+  <si>
+    <t>SVD, Cebu City, and knowledge, education, and the Word of God.</t>
+  </si>
+  <si>
+    <t>What do the three stars in the university seal represent?</t>
+  </si>
+  <si>
+    <t>The three major island groups of the Philippines: Luzon, Visayas, and Mindanao</t>
+  </si>
+  <si>
+    <t>Where is the university historically linked to?</t>
+  </si>
+  <si>
+    <t>a small colegio established in honor of San Ildefonso by the Jesuit priests Antonio Sedeño, Alonso de Humanes, Mateo Sanchez, and a lay brother Gaspar Garay on 21 August 1595</t>
+  </si>
+  <si>
+    <t>When was the university granted university status by the government?</t>
+  </si>
+  <si>
+    <t>1 July 1948</t>
+  </si>
+  <si>
+    <t>When did the university conferred the Bachelor's degree to its first graduates?</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>When did the university transfer to its present site?</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>In 1935, the Colegio de San Carlos was placed under what religious order?</t>
+  </si>
+  <si>
+    <t>Societas Verbi Divini (SVD)</t>
+  </si>
+  <si>
+    <t>When was the college of pharmacy added?</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>When was the university North Campus opened?</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>When was the university South Campus opened?</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>Where is the university North Campus located?</t>
+  </si>
+  <si>
+    <t>along Gen. Maxilom Avenue</t>
+  </si>
+  <si>
+    <t>J. Alcantara Street</t>
+  </si>
+  <si>
+    <t>Where is the university South Campus located?</t>
+  </si>
+  <si>
+    <t>When was the university Talamban Campus opened?</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>The university Talamban Campus became known as what by 1965?</t>
+  </si>
+  <si>
+    <t>By what year was the university Talamban Campus known as the Technological center?</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>Technological center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When was the Josef Baumgartner Learning Resource Center built? </t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>When was the Arts and Sciences Building built?</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>When was the Science Building built?</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>When were the Talamban Campus Dormitories built?</t>
+  </si>
+  <si>
+    <t>What was the Arts and Sciences building later named to?</t>
+  </si>
+  <si>
+    <t>Philip van Engelen Building</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>When was the college of Engineering added?</t>
+  </si>
+  <si>
+    <t>When was the college of Education added?</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>When was the Michael Richartz building built?</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>What was the Engineering Conference center renamed to?</t>
+  </si>
+  <si>
+    <t>Michael Richartz Building</t>
+  </si>
+  <si>
+    <t>What was the old name of Michael Richartz Building ?</t>
+  </si>
+  <si>
+    <t>Engineering Conference Center</t>
+  </si>
+  <si>
+    <t>In what year did The Arts Division of the College of Arts and Sciences transferred to Talamban Campus?</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>When was the Language Academy built?</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Since when did the Comission of Higher Education award full autonomy status to the university?</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>What award did the university's Cebuano Studies Center receive in 2009?</t>
+  </si>
+  <si>
+    <t>Region VII Winner for CHED Best Higher Education Research Program</t>
+  </si>
+  <si>
+    <t>What are the three university saints?</t>
+  </si>
+  <si>
+    <t>San Carlos Borromeo (1538-1584), St. Arnold Janssen (1837-1909), St. Joseph Freinademetz (1852-1908)</t>
+  </si>
+  <si>
+    <t>When is the feast day of St. Charles Borromeo?</t>
+  </si>
+  <si>
+    <t>November 4</t>
+  </si>
+  <si>
+    <t>Who is the founder of the Society of the Divine Word?</t>
+  </si>
+  <si>
+    <t>St. Arnold Janssen</t>
+  </si>
+  <si>
+    <t>What society manages the university?</t>
+  </si>
+  <si>
+    <t>What are the 4 zones of the SVD missionary world?</t>
+  </si>
+  <si>
+    <t>Asia-Pacific (ASPAC), Africa-Madagascar (AFRAM), America (PANAM) and Europe (EUROPA)</t>
+  </si>
+  <si>
+    <t>What are the vice presidents assisting the university president?</t>
+  </si>
+  <si>
+    <t>How many vice presidents are assisting the university president?</t>
+  </si>
+  <si>
+    <t>Vice President for Academic Affairs, Vice President for Administration, Vice President for Finance</t>
+  </si>
+  <si>
+    <t>How many members are in the Board of Trustees of the university?</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>What are the offices attached to the office of the president?</t>
+  </si>
+  <si>
+    <t>the University Chaplain, the Legal Counsel, the Institutional Planning and Quality Assurance (IPQA), the Knowledge, Technology and Transfer Office (KTTO), the Corporate Communications Office, the Office of the Presidential Assistant for Mission and Spirituality (PAMS), and Internal Audit Office</t>
+  </si>
+  <si>
+    <t>What are the offices headed by the Vice President for Academic Affairs?</t>
+  </si>
+  <si>
+    <t>University Academic Council and its Committees, Deans and Chairs, Office of the University Registrar, Research, Development, Extension and Publications Office (RDEPO), External Relations and Internationalization Office (ERIO), Community Extension Services (CES), Library System, National Service Training Program (NSTP), USC Publishing House.</t>
+  </si>
+  <si>
+    <t>What are the offices headed by the Vice President for Administration?</t>
+  </si>
+  <si>
+    <t>Advancement Office, Information Resources Management Office (IRMO), Student Affairs and Services Office (SASO), Office of Administrator of Properties (OAP), Data Privacy Office (DPO), Office of Security and Safety, and Human Resource Management Office (HRMO).</t>
+  </si>
+  <si>
+    <t>IPQA</t>
+  </si>
+  <si>
+    <t>Institutional Planning and Quality Assurance</t>
+  </si>
+  <si>
+    <t>PAMS</t>
+  </si>
+  <si>
+    <t>Internal Audit Office</t>
+  </si>
+  <si>
+    <t>OVPAA</t>
+  </si>
+  <si>
+    <t>Office of the Vice President for Academic Affairs</t>
+  </si>
+  <si>
+    <t>RDEPO</t>
+  </si>
+  <si>
+    <t>Research, Development, Extension and Publications Office</t>
+  </si>
+  <si>
+    <t>ERIO</t>
+  </si>
+  <si>
+    <t>External Relations and Internationalization Office</t>
+  </si>
+  <si>
+    <t>Community Extension Services</t>
+  </si>
+  <si>
+    <t>CES</t>
+  </si>
+  <si>
+    <t>National Service Training Program</t>
+  </si>
+  <si>
+    <t>NSTP</t>
+  </si>
+  <si>
+    <t>VPAd</t>
+  </si>
+  <si>
+    <t>Vice President for Administration</t>
+  </si>
+  <si>
+    <t>IRMO</t>
+  </si>
+  <si>
+    <t>Information Resources Management Office</t>
+  </si>
+  <si>
+    <t>Student Affairs and Services Office</t>
+  </si>
+  <si>
+    <t>SASO</t>
+  </si>
+  <si>
+    <t>Office of Administrator of Properties</t>
+  </si>
+  <si>
+    <t>OAP</t>
+  </si>
+  <si>
+    <t>DPO</t>
+  </si>
+  <si>
+    <t>HRMO</t>
+  </si>
+  <si>
+    <t>Data Privacy Office</t>
+  </si>
+  <si>
+    <t>Human Resource Management Office</t>
+  </si>
+  <si>
+    <t>OAASJ</t>
+  </si>
+  <si>
+    <t>Office of Alumni Affairs, Scholarship and Job Placement Office</t>
+  </si>
+  <si>
+    <t>Office of Naming Rights, Endowments and Scholarships</t>
+  </si>
+  <si>
+    <t>ONES</t>
+  </si>
+  <si>
+    <t>OSFA</t>
+  </si>
+  <si>
+    <t>Office of Student Formation and Activities</t>
+  </si>
+  <si>
+    <t>CDC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +866,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -317,6 +902,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,17 +1261,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12015F-344C-4C50-9691-EBF7D05F5397}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="73.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60" style="5" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -670,27 +1279,788 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>4</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>5</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>5</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>5</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>5</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>5</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>6</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -702,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA4CAE-A54D-4C8C-9F41-F390D4C38DA7}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="A29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,7 +2414,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,7 +2568,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,11 +2900,235 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="82.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944EF6B-5BE4-474D-89C0-C1D33ABC3D1D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,10 +3138,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1555,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1563,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1571,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1587,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1595,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1603,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1611,7 +3205,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1619,7 +3213,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1627,7 +3221,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/2. Questions/Questions and Answers.xlsx
+++ b/2. Questions/Questions and Answers.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\NLP_Student_Manual_Chatbot\2. Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA3EA6-F09F-4FBC-BF9B-0A97A5295B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6269985-77C7-4167-94EC-469A486D586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="11040" windowHeight="12360" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sections" sheetId="2" r:id="rId2"/>
-    <sheet name="Abbreviations" sheetId="5" r:id="rId3"/>
-    <sheet name="Articles" sheetId="4" r:id="rId4"/>
+    <sheet name="Abbreviations" sheetId="5" r:id="rId2"/>
+    <sheet name="Table (CAT#6 - Offices)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sections" sheetId="2" r:id="rId4"/>
+    <sheet name="Articles" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="525">
   <si>
     <t>QUESTION</t>
   </si>
@@ -135,9 +136,6 @@
   </si>
   <si>
     <t>Admission</t>
-  </si>
-  <si>
-    <t>Enrollment</t>
   </si>
   <si>
     <t>Fees and Fees Adjustments</t>
@@ -430,17 +428,6 @@
   </si>
   <si>
     <t>What are the core values of the university?</t>
-  </si>
-  <si>
-    <t>The University of San Carlos sees:
- • a WORLD where the darkness of sin and the night of unbelief vanish 
-before the light of the Word and the Spirit of grace
- • a SOCIETY where citizens are competent, noble in character, and 
-community-oriented
- • what they know, they apply justly and honestly;
- • what they do not know, they seek to learn;
- • what they do not have, they endeavor to acquire;
- • what they have, they share</t>
   </si>
   <si>
     <t>What does scientia mean?</t>
@@ -845,6 +832,876 @@
   </si>
   <si>
     <t>CDC</t>
+  </si>
+  <si>
+    <t>Who elects the university president?</t>
+  </si>
+  <si>
+    <t>Board of Trustees</t>
+  </si>
+  <si>
+    <t>What is the Advancement office composed of?</t>
+  </si>
+  <si>
+    <t>Counselling and Development Center</t>
+  </si>
+  <si>
+    <t>HSO</t>
+  </si>
+  <si>
+    <t>Health Services Office</t>
+  </si>
+  <si>
+    <t>Performing Arts Group</t>
+  </si>
+  <si>
+    <t>PAG</t>
+  </si>
+  <si>
+    <t>Athletics and Recreation Center</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>Physical Plant and Facilities Office</t>
+  </si>
+  <si>
+    <t>PPFO</t>
+  </si>
+  <si>
+    <t>the Office of Alumni Affairs, Scholarship and Job Placement Office (OAASJ), Office of Naming Rights, Endowments and Scholarships (ONES), and Semper Fidelis. IRMO is composed of Administrative Computing Services and Technical Networking Services and Help Desk Offices</t>
+  </si>
+  <si>
+    <t>What is the student affaurs and services office composed of?</t>
+  </si>
+  <si>
+    <t>Counselling and Development Center (CDC), Office of Student Formation and Activities (OSFA), Health Services Office (HSO), Performing Arts Group (PAG), Dormitory; and Athletics and Recreation Center (ARC)</t>
+  </si>
+  <si>
+    <t>What is the Office of Administrator of Properties composed of?</t>
+  </si>
+  <si>
+    <t>Physical Plant and Facilities Office (PPFO), Facilities Office, Maintenance Office, and Utilities Office.</t>
+  </si>
+  <si>
+    <t>Who is the chief financial officer of the university?</t>
+  </si>
+  <si>
+    <t>Vice President for Finance (VPF)</t>
+  </si>
+  <si>
+    <t>What is the role of the Vice President for Finance?</t>
+  </si>
+  <si>
+    <t>chief financial officer of the University</t>
+  </si>
+  <si>
+    <t>What are the offices headed by the Vice President for Finance?</t>
+  </si>
+  <si>
+    <t>Comptroller, Treasurer, and Head of the Budget and Purchasing Department</t>
+  </si>
+  <si>
+    <t>What does the Comptroller supervise?</t>
+  </si>
+  <si>
+    <t>Accounting and Payroll Offices</t>
+  </si>
+  <si>
+    <t>What does the treasurer supervise?</t>
+  </si>
+  <si>
+    <t>Cash and fund officers</t>
+  </si>
+  <si>
+    <t>VPF</t>
+  </si>
+  <si>
+    <t>Vice President for Finance</t>
+  </si>
+  <si>
+    <t>Office of the Presidential Assistant for Mission and Spirituality</t>
+  </si>
+  <si>
+    <t>HEAD OFFICE</t>
+  </si>
+  <si>
+    <t>GOVERNING OFFICE</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>University Chaplain</t>
+  </si>
+  <si>
+    <t>Legal Counsel</t>
+  </si>
+  <si>
+    <t>Knowledge, Technology and Transfer Office</t>
+  </si>
+  <si>
+    <t>Corporate Communications Office</t>
+  </si>
+  <si>
+    <t>Vice President for Academic Affairs</t>
+  </si>
+  <si>
+    <t>University Academic Council</t>
+  </si>
+  <si>
+    <t>Deans and Chairs</t>
+  </si>
+  <si>
+    <t>Office of the University Registrar</t>
+  </si>
+  <si>
+    <t>Library System</t>
+  </si>
+  <si>
+    <t>USC Publishing House</t>
+  </si>
+  <si>
+    <t>Advancement Office</t>
+  </si>
+  <si>
+    <t>Office of Security and Safety</t>
+  </si>
+  <si>
+    <t>ISMIS</t>
+  </si>
+  <si>
+    <t>Office of Alumni Affairs, Scholarship and Job Placement</t>
+  </si>
+  <si>
+    <t>Semper Fidelis</t>
+  </si>
+  <si>
+    <t>Administrative Computing Services</t>
+  </si>
+  <si>
+    <t>Technical Networking Services</t>
+  </si>
+  <si>
+    <t>Help Desk Offices</t>
+  </si>
+  <si>
+    <t>Dormitory</t>
+  </si>
+  <si>
+    <t>Facilities Office</t>
+  </si>
+  <si>
+    <t>Maintenance Office</t>
+  </si>
+  <si>
+    <t>Utilities Office</t>
+  </si>
+  <si>
+    <t>Comptroller</t>
+  </si>
+  <si>
+    <t>Treasurer</t>
+  </si>
+  <si>
+    <t>Budget and Purchasing Department</t>
+  </si>
+  <si>
+    <t>SAFAD</t>
+  </si>
+  <si>
+    <t>SBE</t>
+  </si>
+  <si>
+    <t>SOE</t>
+  </si>
+  <si>
+    <t>SHCP</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
+    <t>School of Architecture, Fine Arts, and Design</t>
+  </si>
+  <si>
+    <t>USC Email</t>
+  </si>
+  <si>
+    <t>USC Canvas</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>School of Arts and Sciences</t>
+  </si>
+  <si>
+    <t>School of Business and Economics</t>
+  </si>
+  <si>
+    <t>School of Engineering</t>
+  </si>
+  <si>
+    <t>School of Healthcare Professions</t>
+  </si>
+  <si>
+    <t>School of Law and Governance</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>Department of Anthropology, Sociology, and History</t>
+  </si>
+  <si>
+    <t>DCISM</t>
+  </si>
+  <si>
+    <t>Department of Computer, Information Sciences, and Mathematics</t>
+  </si>
+  <si>
+    <t>DCLL</t>
+  </si>
+  <si>
+    <t>Department of Communications, Linguistics, and Literature</t>
+  </si>
+  <si>
+    <t>DCPE</t>
+  </si>
+  <si>
+    <t>DEEE</t>
+  </si>
+  <si>
+    <t>Department of Computer Engineering</t>
+  </si>
+  <si>
+    <t>Department of Electrical and Electronics Engineering</t>
+  </si>
+  <si>
+    <t>Department of Architecture</t>
+  </si>
+  <si>
+    <t>Department of Fine Arts</t>
+  </si>
+  <si>
+    <t>Department of Biology</t>
+  </si>
+  <si>
+    <t>Department of Chemistry</t>
+  </si>
+  <si>
+    <t>Department of Philosophy</t>
+  </si>
+  <si>
+    <t>Department of Physics</t>
+  </si>
+  <si>
+    <t>Department of Psychology</t>
+  </si>
+  <si>
+    <t>School of Business of Economics</t>
+  </si>
+  <si>
+    <t>Department of Accountancy</t>
+  </si>
+  <si>
+    <t>Department of Business Administration</t>
+  </si>
+  <si>
+    <t>Department of Economics</t>
+  </si>
+  <si>
+    <t>Department of Hospitality Management</t>
+  </si>
+  <si>
+    <t>School of Education</t>
+  </si>
+  <si>
+    <t>Department of Teacher Education</t>
+  </si>
+  <si>
+    <t>Department of Nursing</t>
+  </si>
+  <si>
+    <t>Department of Nutrition and Dietetics</t>
+  </si>
+  <si>
+    <t>Department of Pharmacy</t>
+  </si>
+  <si>
+    <t>Department of Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Department of Civil Engineering</t>
+  </si>
+  <si>
+    <t>Department of Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Department of Mechanical and Manufacturing Engineering</t>
+  </si>
+  <si>
+    <t>College of Law</t>
+  </si>
+  <si>
+    <t>Department of Political Science</t>
+  </si>
+  <si>
+    <t>Lower Basic Education</t>
+  </si>
+  <si>
+    <t>Montessori Academy</t>
+  </si>
+  <si>
+    <t>Senior High School</t>
+  </si>
+  <si>
+    <t>insert the text descriptions of the schools and departments</t>
+  </si>
+  <si>
+    <t>Where can program-specific requirements may 
+be obtained?</t>
+  </si>
+  <si>
+    <t>From the respective school/department or the University Office of Recruitment and Admissions (ORA)</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>University Office of Recruitment and Admissions</t>
+  </si>
+  <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>College Admission Examinations</t>
+  </si>
+  <si>
+    <t>Who should take the College Admission Examiniations?</t>
+  </si>
+  <si>
+    <t>Who must take the College Admission Examinations?</t>
+  </si>
+  <si>
+    <t>Students graduating from senior high school who want to enroll in the University as well as tertiary students who want to transfer to the University</t>
+  </si>
+  <si>
+    <t>Are transferees required to take the College Admission Examinations?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>The University adopts, as a matter of policy, inclusive education. In accordance with what guidelines?</t>
+  </si>
+  <si>
+    <t>the UNESCO Policy Guidelines</t>
+  </si>
+  <si>
+    <t>What are the requirements in taking the quaifying examinations?</t>
+  </si>
+  <si>
+    <t>What are the requirements in taking the college admission examinations?</t>
+  </si>
+  <si>
+    <t>What do we need to bring when taking the college admission examinations?</t>
+  </si>
+  <si>
+    <t>Where should transferees secure a clearance from for the qualifying examinations?</t>
+  </si>
+  <si>
+    <t>Where should transferees secure a clearance from for the college admission examinations?</t>
+  </si>
+  <si>
+    <t>Office of Student Formation and Activities (OSFA)</t>
+  </si>
+  <si>
+    <t>What should transferres present during the interview at the OSFA?</t>
+  </si>
+  <si>
+    <t>a Certificate of Good Moral Character from the school they last attended</t>
+  </si>
+  <si>
+    <t>Are applicant students allowed to enroll in an academic program outside their academic strands?</t>
+  </si>
+  <si>
+    <t>Yes, but subject to the school/department policy on the taking of bridging courses.</t>
+  </si>
+  <si>
+    <t>What are transferees?</t>
+  </si>
+  <si>
+    <t>undergraduate students who wish to enroll in a bachelor’s program at the University of San Carlos after having been enrolled in a college course from another institution</t>
+  </si>
+  <si>
+    <t>At what year level should transferres start their enrollment at the university?</t>
+  </si>
+  <si>
+    <t>no later than the third year of a four-year curriculum or fourth year of a five-year curriculum</t>
+  </si>
+  <si>
+    <t>For senior high school graduates to qualify for Admission to a particular Curricular Program, what are the requirements?</t>
+  </si>
+  <si>
+    <t>What are the requirements for senior high school graduates to qualify for Admission to a particular Curricular Program?</t>
+  </si>
+  <si>
+    <t>For transferees to qualify for Admission to a particular Curricular Program, what are the requirements?</t>
+  </si>
+  <si>
+    <t>What are the requirements for transferees to qualify for Admission to a particular Curricular Program?</t>
+  </si>
+  <si>
+    <t>Where can students view the complete admission process?</t>
+  </si>
+  <si>
+    <t>the University website and the official social media page.</t>
+  </si>
+  <si>
+    <t>What do we need to bring when taking the qualifying examinations?</t>
+  </si>
+  <si>
+    <t>Can I enroll in an academic program outside my academic strand or track?</t>
+  </si>
+  <si>
+    <t>Is enrollment by proxy allowed?</t>
+  </si>
+  <si>
+    <t>Enrollment by proxy is not allowed.</t>
+  </si>
+  <si>
+    <t>What is ISMIS?</t>
+  </si>
+  <si>
+    <t>Integrated School Management Information System</t>
+  </si>
+  <si>
+    <t>It is a repository of pertinent school information. Officially enrolled students can view grades, class schedules, application for student requests (withdrawal, program shift, overload, etc.), assessment and enrollment.</t>
+  </si>
+  <si>
+    <t>Where can I enroll?</t>
+  </si>
+  <si>
+    <t>In the ISMIS Portal</t>
+  </si>
+  <si>
+    <t>What is a course?</t>
+  </si>
+  <si>
+    <t>Course refers to a subject offered in a tertiary institution. It is identified by the course title, course code, and course description.</t>
+  </si>
+  <si>
+    <t>What is a class list?</t>
+  </si>
+  <si>
+    <t>Class List is a list of students officially enrolled in a particular course and schedule.</t>
+  </si>
+  <si>
+    <t>Where are the detailed instructions on online enrollment procedures available?</t>
+  </si>
+  <si>
+    <t>in ISMIS and the official USC website</t>
+  </si>
+  <si>
+    <t>What does it mean when a student registers in USC?</t>
+  </si>
+  <si>
+    <t>It is understood that he/she is enrolling for the entire term.</t>
+  </si>
+  <si>
+    <t>When is a student officially enrolled?</t>
+  </si>
+  <si>
+    <t>A student is officially enrolled after he/she has submitted the required documentation requirements as indicated in Section 2.5 of this Manual at the Office of the University Registrar, has made an initial payment of school fees, and has been issued or has downloaded a validated Study Load that authorizes him/her to attend classes.</t>
+  </si>
+  <si>
+    <t>How is a course identified?</t>
+  </si>
+  <si>
+    <t>It is identified by the course title, course code, and course description.</t>
+  </si>
+  <si>
+    <t>Why should a student have to be officially enrolled?</t>
+  </si>
+  <si>
+    <t>A student must be officially enrolled in a course to participate in class activities, take quizzes and major exams, and to receive a grade at the end of the semester.</t>
+  </si>
+  <si>
+    <t>How do I know if a student is officially enrolled in a course?</t>
+  </si>
+  <si>
+    <t>His/her name must be reflected on the class list.</t>
+  </si>
+  <si>
+    <t>What are the documentation requirements for enrollment  for senior high school graduates?</t>
+  </si>
+  <si>
+    <t>What are the documentation requirements for enrollment  for new first years?</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as a freshman when I enroll?</t>
+  </si>
+  <si>
+    <t>As a freshman, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What courses are ineligible for accreditation?</t>
+  </si>
+  <si>
+    <t>Are NSTP courses eligible for accreditation?</t>
+  </si>
+  <si>
+    <t>General Education (basic) Courses taken and passed prior to Academic Year 2018-2019</t>
+  </si>
+  <si>
+    <t>Hague Conference on Private International Law</t>
+  </si>
+  <si>
+    <t>HCCH</t>
+  </si>
+  <si>
+    <t>How should international students from countries that are members of The Hague Conference on Private International Law submit their requirements?</t>
+  </si>
+  <si>
+    <t>How should international students from countries that are not members of The Hague Conference on Private International Law submit their requirements?</t>
+  </si>
+  <si>
+    <t>They shall submit in English Form authenticated documents through the Apostille issued by the Secretary of State of the country of origin</t>
+  </si>
+  <si>
+    <t>Their documents need an authentication with a red ribbon by the Philippine Embassy in the country of origin.</t>
+  </si>
+  <si>
+    <t>The international students from countries that are members of The Hague Conference on Private International Law (HCCH) shall submit in English Form authenticated documents through the Apostille issued by the Secretary of State of the country of origin. For students from countries not members of HCCH, what applies is an authentication with a red ribbon by the Philippine Embassy in the country of origin.</t>
+  </si>
+  <si>
+    <t>How should international students submit their requirements for enrollment?</t>
+  </si>
+  <si>
+    <t>The University of San Carlos sees:
+- a WORLD where the darkness of sin and the night of unbelief vanish 
+before the light of the Word and the Spirit of grace
+- a SOCIETY where citizens are competent, noble in character, and 
+community-oriented
+- what they know, they apply justly and honestly;
+- what they do not know, they seek to learn;
+- what they do not have, they endeavor to acquire;
+- what they have, they share</t>
+  </si>
+  <si>
+    <t>To take the qualifying examinations, the following are required: 
+- three (3) copies of 2” x 2” ID pictures (colored with white background)
+- pencil
+- testing fee (may vary depending on the program</t>
+  </si>
+  <si>
+    <t>Where is enrollment done?</t>
+  </si>
+  <si>
+    <t>The link for the ISMIS portal is https://ismis.usc.edu.ph.</t>
+  </si>
+  <si>
+    <t>Where can I access ISMIS?</t>
+  </si>
+  <si>
+    <t>What is the link for ISMIS?</t>
+  </si>
+  <si>
+    <t>What can students do in ISMIS?</t>
+  </si>
+  <si>
+    <t>Students can view grades, class schedules, application for student requests (withdrawal, program shift, overload, etc.), assessment and enrollment.</t>
+  </si>
+  <si>
+    <t>When a student registers in USC, it is understood that he or she is enrolling for how long?</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Certificate of Transfer Credentials 
+- Evaluative Copy of the Transcript of Records 
+- Passing mark in the qualifying examinations 
+- Compliance to supplemental requirements which may be prescribed by authorized offices/academic units, where applicable 
+- Interview with the Department Chair.</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Passing FINAL GRADE in all senior high school subjects (certain programs require specific cut-off grades)
+- Passing mark in the qualifying examinations
+- Compliance to supplemental requirements which may be prescribed by authorized offices/academic units, where applicable
+- Interview with the Department Chair</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Original Form 138 (Senior High School Card - Grade 12) duly signed/certified by the Principal/School Registrar as eligible for college, or the ALS A&amp;E Certificate of Rating and other eligibilitydocuments recognized by DepEd and CHED.
+- Original Copy of Birth Certificate from National Statistics Office (NSO)/ Philippine Statistics Authority (PSA)
+- Accomplished Student’s Personal Data Sheet (online through ISMIS)
+- Other requirements where applicable</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as a transferee when I enroll?</t>
+  </si>
+  <si>
+    <t>As a transferee, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What are the documentation requirements for enrollment for transferees?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The requirements are:
+- Certificate of Transfer Credentials (Honorable Dismissal)
+- Informative Copy of Transcript of Records (TOR)
+- Original Copy of Birth Certificate from National Statistics Office (NSO)/Philippine Statistics Authority (PSA)
+- Accomplished Course Accreditation Form (through ISMIS)
+- Clearance from the Office of Student Formation and Activities (OSFA)
+- Accomplished Student’s Personal Data Sheet (through ISMIS)
+- Other requirements where applicable </t>
+  </si>
+  <si>
+    <t>It is understood that he or she is enrolling for the entire term.</t>
+  </si>
+  <si>
+    <t>As an international student, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What are the requirements for international students?</t>
+  </si>
+  <si>
+    <t>What are the documetation requirements for international students?</t>
+  </si>
+  <si>
+    <t>As an international student graduating in the Philippines, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What are the requirements for international students graduating in the Philippines?</t>
+  </si>
+  <si>
+    <t>What are the documetation requirements for international students graduating in the Philippines?</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Transcript of Records (1st and 2nd semesters of Grade 11 and Grade 12) for Bachelor’s Program (IGCSE/GCSE with A-Levels may also be considered)
+- Diploma/Certificate of graduation Grade 12
+- Photocopy of Passport bio-page showing date and place of birth 
+- English Proficiency Requirement with a rating in either IELTS with a score of 6.0 or TOEFEL with a score of at least 60 or as prescribed by the program.
+- Birth Certificate/ Family Register / Household Register 
+- Police Clearance (No Criminal Record) issued by the national police authorities in the student’s country of origin or legal residence. 
+- Original copy of notarized Affidavit of Support and proof of adequate financial support or bank statement to cover expenses for student’s accommodation and subsistence, school fees, and other incidental expenses. 
+- Five (5) copies of the Student’s Personal History Statement (PHS) duly signed in English and in his/her national language accompanied by his/her personal seal, if any. The PHS should contain his/her left and right thumb-prints, and a 2X2 inch photograph on plain white background taken not more than six (6) months before submission.</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Report Card (Form 138) (1st and 2nd semester of Grade 12) duly certified/signed by the School Registrar/ Principal as eligible for college
+- Photocopy of Diploma
+- Birth Certificate / Household Register / Family Register duly authenticated 
+- Photocopy of Passport bio-page showing date and place of birth 
+- Copy of Special Study Permit (SSP) issued by the Bureau of Immigration or copy of other visas e.g. SSRV, SIRV, 9G etc.
+- Original copy of notarized Affidavit of Support and proof of adequate financial support or bank statement to cover expenses for student’s accommodation and subsistence, school fees, and other incidental expenses. 
+- Five (5) copies of the Student’s Personal History Statement (PHS) duly signed both in English and in his/ her national language accompanied by his/her personal seal, if any. The PHS should contain his/her left and right thumb-prints, and a 2X2 inch photograph on plain white background taken not more than six (6) months before submission.</t>
+  </si>
+  <si>
+    <t>Once I am enrolled as an international student, what should I comply?</t>
+  </si>
+  <si>
+    <t>Once officially enrolled, the International Student must comply with the Bureau of Immigration requirements of the following:
+- Student Visa Conversion (from tourist visa category to student visa) 
+- Student Visa Extension or Special Study Permit (SSP)</t>
+  </si>
+  <si>
+    <t>Where should I comply my student visa conversion and student visa extension?</t>
+  </si>
+  <si>
+    <t>Where should I comply my special study permit?</t>
+  </si>
+  <si>
+    <t>Where should I comply my special study permit as an international student?</t>
+  </si>
+  <si>
+    <t>Bureau of Immigration</t>
+  </si>
+  <si>
+    <t>As an international student transferee from Philippine Schools, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What are the requirements for international student transferees from Philippine Schools?</t>
+  </si>
+  <si>
+    <t>What are the documetation requirements for international student transferee from Philippine Schools?</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as international student transferees from Philippine Schools?</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as international students graduating in the Philippines?</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as international students?</t>
+  </si>
+  <si>
+    <t>As an international student transferee from Schools Abroad, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What are the requirements for international student transferees from Schools Abroad?</t>
+  </si>
+  <si>
+    <t>What are the documetation requirements for international student transfereefrom Schools Abroad?</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as international student transferees from Schools Abroad?</t>
+  </si>
+  <si>
+    <t>As an student with Dual Citizenship and Graduated Abroad, what requirements should I bring when I enroll?</t>
+  </si>
+  <si>
+    <t>What are the requirements for students with Dual Citizenship and Graduated Abroad?</t>
+  </si>
+  <si>
+    <t>What are the documetation requirements for students with Dual Citizenship and Graduated Abroad?</t>
+  </si>
+  <si>
+    <t>What requirements should I bring as a student with Dual Citizenship and Graduated Abroad?</t>
+  </si>
+  <si>
+    <t>For international students, where should they submit their documentation requirements for enrollment?</t>
+  </si>
+  <si>
+    <t>As an international student, where should I submit my documents for enrollment?</t>
+  </si>
+  <si>
+    <t>As an international student, where should I submit my requirements for enrollment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The complete enrollment documentation shall be submitted to the EXTERNAL RELATIONS AND INTERNATIONALIZATION OFFICE (ERIO), Downtown Campus personally or through a courier service addressed to: 
+EXTERNAL RELATIONS AND INTERNATIONALIZATION OFFICE
+University of San Carlos 
+P. Del Rosario St. 
+Cebu City 6000, Philippines </t>
+  </si>
+  <si>
+    <t>Where should I submit my requirements for enrollment as an international student?</t>
+  </si>
+  <si>
+    <t>When can the university invalidate the enrollment of a student?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The University may invalidate the enrollment of a student 
+who has been found to have submitted an intentional 
+misrepresentation/misdeclaration or falsification of submitted 
+documents. </t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Original copy of the Certificate of Transfer Credential (Honorable Dismissal)
+- Transcript of Records (Informative Copy) 
+- Certificate of Good Moral Character / Clearance from OSA 
+- Photocopy of Passport bio-page
+- Copy of 9F valid Student Visa Stamp 
+- Copy of Alien Certificate of Registration of Identification Card (ACR-ICard) 
+- Birth Certificate / Family Register / Household Register duly authenticated
+- NBI clearance 
+- Original copy of notarized Affidavit of Support and proof of adequate financial support or bank statement to cover expenses for student’s accommodation and subsistence, school fees, and other incidental expenses.</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Transcript of Records
+- Certificate of Graduation/Diploma 
+- Police clearance (No Criminal Record) issued by the national police authorities in the student’s country of origin or legal residence 
+- Photocopy of Passport bio-page 
+- English Proficiency Requirement with a rating in either IELTS with a score of 6.0 or TOEFEL with a score of at least 60 or as prescribed by the program.
+- Birth Certificate/ Family Register/ Household Register 
+- Original copy of notarized Affidavit of Support and proof of adequate financial support or bank statement to cover expenses for student’s accommodation and subsistence, school fees, and other incidental expenses. 
+- Five (5) copies of the Student’s Personal History Statement (PHS) duly signed both in English and in his/ her national alphabet accompanied by his/her personal seal if any, containing among others, his/her left and right thumb-prints and a 2X2 inch photograph on plain white background taken not more than six (6) months prior to submission.</t>
+  </si>
+  <si>
+    <t>The requirements are:
+- Transcript of Records 
+- Certificate of Graduation/Diploma 
+- Police Clearance (No Criminal Record)/ Certificate of Good Moral Character 
+- Photocopy of Passport bio-page/Philippine Passport 
+- Original Authenticated PSA (NSO) Birth Certificate 
+- Clear photocopy of Birth Certificate 
+- A valid Philippine Passport: Identification Certificate (IC) or Certificate of Reacquisition/Retention of Philippine Citizenship</t>
+  </si>
+  <si>
+    <t>What are cross enrollees?</t>
+  </si>
+  <si>
+    <t>What are consortium students?</t>
+  </si>
+  <si>
+    <t>They are non-USC students who intend to enroll in the University for a semester subject to the approval of the Department Chair and School Dean.</t>
+  </si>
+  <si>
+    <t>How can cross enrollees enroll?</t>
+  </si>
+  <si>
+    <t>What should cross enrollees submit?</t>
+  </si>
+  <si>
+    <t>What requirements should I submit as a cross enrollee?</t>
+  </si>
+  <si>
+    <t>What should I prepare as a cross enrollee?</t>
+  </si>
+  <si>
+    <t>How can consortium students enroll?</t>
+  </si>
+  <si>
+    <t>What should consortium students submit?</t>
+  </si>
+  <si>
+    <t>What requirements should I submit as a consortium student?</t>
+  </si>
+  <si>
+    <t>What should I prepare as a consortium student?</t>
+  </si>
+  <si>
+    <t>submit a Permit to Study / Cross-enrollment Permit issued by the Registrar of the home institution during the enrollment period.</t>
+  </si>
+  <si>
+    <t>What are special students?</t>
+  </si>
+  <si>
+    <t>They are students admitted to the University but are not entitled to receive official credit for a course because they do not satisfy the requirements for admission. Furthermore, they are not eligible for any honors or privileges.</t>
+  </si>
+  <si>
+    <t>Are special students eligible for honors and previleges?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>What should special students do during enrollment?</t>
+  </si>
+  <si>
+    <t>As a special student, what should I do during enrollment?</t>
+  </si>
+  <si>
+    <t>During enrollment they should: 
+- get written approval from the School Dean and/or Department Chair concerned;
+- go to the Office of the University Registrar to execute the contract in which they waive the right to receive and demand credit for the work done; 
+- pay in full the required fees at the time of enrollment; 
+- have a Special Study Permit (for foreign students).</t>
+  </si>
+  <si>
+    <t>Enrollment Requirements</t>
+  </si>
+  <si>
+    <t>Enrollment Mechanics</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>Certificate of Transfer Credentials</t>
   </si>
 </sst>
 </file>
@@ -894,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -915,18 +1772,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12015F-344C-4C50-9691-EBF7D05F5397}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,14 +2145,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1302,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1313,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5">
         <v>1948</v>
@@ -1324,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1335,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1346,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1357,21 +2215,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1379,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1390,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,32 +2259,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1434,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1445,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1456,10 +2314,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1467,10 +2325,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1478,10 +2336,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -1489,10 +2347,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>130</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1500,10 +2358,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1511,10 +2369,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1522,10 +2380,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1533,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -1555,10 +2413,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1566,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1577,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -1588,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -1599,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -1610,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1621,10 +2479,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1632,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1643,32 +2501,32 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1676,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1687,10 +2545,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1698,10 +2556,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1709,10 +2567,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1720,10 +2578,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1731,10 +2589,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1742,10 +2600,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1753,10 +2611,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1764,10 +2622,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1775,10 +2633,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1786,10 +2644,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1797,10 +2655,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1808,10 +2666,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1819,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1830,10 +2688,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1841,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1852,10 +2710,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1863,10 +2721,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1874,10 +2732,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1885,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1896,10 +2754,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1907,10 +2765,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1918,10 +2776,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1929,10 +2787,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1940,10 +2798,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1951,10 +2809,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1962,10 +2820,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1973,10 +2831,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1984,10 +2842,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1995,21 +2853,21 @@
         <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2017,50 +2875,914 @@
         <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="7" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>6</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>6</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B69" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
+    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>6</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B71" s="5" t="s">
+    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>6</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B72" s="5" t="s">
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>6</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>231</v>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>6</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>6</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>6</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>6</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>6</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>6</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>6</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>7</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B103" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>8</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C111" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B112" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C112" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C113" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C114" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C115" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C116" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C117" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B118" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B120" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B121" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B123" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C125" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B127" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B128" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B129" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C129" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C130" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B132" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B133" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B134" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="B135" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B136" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B137" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B138" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B139" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B140" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B141" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B143" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B144" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B145" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B146" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B147" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B148" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B149" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B150" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="B151" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B152" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B153" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B154" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B155" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B156" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B157" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B158" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B159" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B160" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C161" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C162" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C163" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C164" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C165" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C166" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C167" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C168" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B169" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C169" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C170" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C171" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C173" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B174" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B175" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -2069,11 +3791,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="82.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>440</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>523</v>
+      </c>
+      <c r="C49" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9146E0-4BC1-4E44-8D90-279A5A2C9FAC}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.5546875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA4CAE-A54D-4C8C-9F41-F390D4C38DA7}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="A29:D30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,7 +4795,7 @@
     <col min="4" max="4" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +4809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2109,7 +4823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2123,7 +4837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2137,7 +4851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2151,7 +4865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2165,7 +4879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2178,8 +4892,11 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2193,7 +4910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2204,10 +4921,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2215,13 +4932,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2229,13 +4946,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2243,13 +4960,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2257,13 +4974,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2271,27 +4988,27 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2299,10 +5016,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,10 +5030,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2327,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2341,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,10 +5086,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,10 +5100,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,10 +5114,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,10 +5128,10 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,10 +5142,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2436,13 +5153,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2453,10 +5170,10 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,13 +5181,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,10 +5198,10 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2506,13 +5223,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,10 +5240,10 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2537,10 +5254,10 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2551,10 +5268,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,10 +5282,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,10 +5296,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,13 +5307,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,10 +5324,10 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2618,13 +5335,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,10 +5352,10 @@
         <v>8</v>
       </c>
       <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2646,13 +5363,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2663,10 +5380,10 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,10 +5408,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2705,10 +5422,10 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2719,10 +5436,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,10 +5450,10 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2744,13 +5461,13 @@
         <v>47</v>
       </c>
       <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
         <v>10</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2761,10 +5478,10 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2775,10 +5492,10 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2789,10 +5506,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2803,10 +5520,10 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2817,10 +5534,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,10 +5548,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2845,10 +5562,10 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2859,10 +5576,10 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2873,7 +5590,7 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>73</v>
@@ -2887,10 +5604,52 @@
         <v>10</v>
       </c>
       <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2899,231 +5658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="82.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944EF6B-5BE4-474D-89C0-C1D33ABC3D1D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -3138,10 +5673,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3149,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3157,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3165,7 +5700,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3173,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3181,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3189,7 +5724,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3197,7 +5732,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3205,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3213,7 +5748,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3221,7 +5756,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/2. Questions/Questions and Answers.xlsx
+++ b/2. Questions/Questions and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\NLP_Student_Manual_Chatbot\2. Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6269985-77C7-4167-94EC-469A486D586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46194321-8D31-4FBF-BD6D-6C0F65466A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="11040" windowHeight="12360" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="686">
   <si>
     <t>QUESTION</t>
   </si>
@@ -229,12 +229,6 @@
   </si>
   <si>
     <t>Directory of Student Support Services and Programs</t>
-  </si>
-  <si>
-    <t>CHL Rationale</t>
-  </si>
-  <si>
-    <t>CHL Aims</t>
   </si>
   <si>
     <t>Recognition and Previleges</t>
@@ -1030,12 +1024,6 @@
   </si>
   <si>
     <t>School of Architecture, Fine Arts, and Design</t>
-  </si>
-  <si>
-    <t>USC Email</t>
-  </si>
-  <si>
-    <t>USC Canvas</t>
   </si>
   <si>
     <t>SAS</t>
@@ -1702,6 +1690,509 @@
   </si>
   <si>
     <t>Certificate of Transfer Credentials</t>
+  </si>
+  <si>
+    <t>Where can Foreign nationals who intend to enroll as Special Students get clearance from?</t>
+  </si>
+  <si>
+    <t>Why are special students not entitled to receive official credit for a course?</t>
+  </si>
+  <si>
+    <t>Because they do not satisfy the requirements for admission.</t>
+  </si>
+  <si>
+    <t>NBCR</t>
+  </si>
+  <si>
+    <t>Native Born Certificate of Registration</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>Alien Certificate of Registration</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Study Permit </t>
+  </si>
+  <si>
+    <t>PHS</t>
+  </si>
+  <si>
+    <t>Personal History Statement</t>
+  </si>
+  <si>
+    <t>General Education (basic) Courses taken and passed prior to Academic Year 2018-2019 are ineligible for accreditation except for what courses?</t>
+  </si>
+  <si>
+    <t>Rizal and NSTP</t>
+  </si>
+  <si>
+    <t>What are the requirements for Philippine born alien students?</t>
+  </si>
+  <si>
+    <t>What are the requirements for children of foreign nationals in the Philippines?</t>
+  </si>
+  <si>
+    <t>photocopy of their Alien Certificate of Registration I-Card (ACR I-Card) and Native Born Certificate of Registration (NBCR) which are certified by the Commission on Higher Education (CHED)</t>
+  </si>
+  <si>
+    <t>What are the requirements for foreign-born alien students?</t>
+  </si>
+  <si>
+    <t>What are the requirenents for students whose parents are naturalized Filipinos?</t>
+  </si>
+  <si>
+    <t>photocopy of the Identification Certificate issued by the Bureau of Immigration, which is certified against the original copy by CHED.</t>
+  </si>
+  <si>
+    <t>photocopy of their Alien Certificate of Registration (ACR) that is certified by CHED.</t>
+  </si>
+  <si>
+    <t>What should Philippine-born alien students submit during the application for graduation?</t>
+  </si>
+  <si>
+    <t>receipt of payment for the Alien Registration Fee for the current year</t>
+  </si>
+  <si>
+    <t>From where shall the name and other personal data and circumstances of each student prevail?</t>
+  </si>
+  <si>
+    <t>From what documents serve as the basis for each student's name and other personal data?</t>
+  </si>
+  <si>
+    <t>Birth certificate or Alien Certificate of Registration</t>
+  </si>
+  <si>
+    <t>Permit to Study / Cross-enrollment Permit issued by the Registrar of the home institution during the enrollment period.</t>
+  </si>
+  <si>
+    <t>What happens if a student has been found to have submitted an intentional misrepresentation/misdeclaration or falsification of submitted documents?</t>
+  </si>
+  <si>
+    <t>The University may invalidate the enrollment of the student</t>
+  </si>
+  <si>
+    <t>General Education (basic) Courses taken and passed prior to what Academic Year are ineligible for accreditation?</t>
+  </si>
+  <si>
+    <t>Academic Year 2018-2019</t>
+  </si>
+  <si>
+    <t>Are changes of program permitted after the close of an enrollment period?</t>
+  </si>
+  <si>
+    <t>Are changes of program allowed after the close of an enrollment period?</t>
+  </si>
+  <si>
+    <t>Who can endorse a student's change of program?</t>
+  </si>
+  <si>
+    <t>Who can approve a student's change of program?</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Department Chair and School Dean</t>
+  </si>
+  <si>
+    <t>A student may change a program upon what conditions?</t>
+  </si>
+  <si>
+    <t>endorsement of the Department Chair and School Dean and approval by the Registrar</t>
+  </si>
+  <si>
+    <t>When is cross-enrollment not allowed?</t>
+  </si>
+  <si>
+    <t>If it is the only remaining course of the student</t>
+  </si>
+  <si>
+    <t>Cross-enrollment in another institution may be permitted to graduating students of not more than how many units?</t>
+  </si>
+  <si>
+    <t>six units during the semester and three units during the summer term</t>
+  </si>
+  <si>
+    <t>For what courses can a permit to study in another school be granted?</t>
+  </si>
+  <si>
+    <t>General Education courses</t>
+  </si>
+  <si>
+    <t>Can major courses be taken at another school?</t>
+  </si>
+  <si>
+    <t>Can professional courses be taken at another school?</t>
+  </si>
+  <si>
+    <t>What courses can the permit to study in another school be applied?</t>
+  </si>
+  <si>
+    <t>On what conditions is a permit to study in another school with accredited programs granted?</t>
+  </si>
+  <si>
+    <t>Upon the recommendation of the Department Chair and the approval of the School Dean</t>
+  </si>
+  <si>
+    <t>Where is the application for withdrawal of courses located?</t>
+  </si>
+  <si>
+    <t>Online in ISMIS under Student Task</t>
+  </si>
+  <si>
+    <t>When is the withdrawal of courses not allowed?</t>
+  </si>
+  <si>
+    <t>When cannot students withdraw from courses?</t>
+  </si>
+  <si>
+    <t>When can students withdraw from courses?</t>
+  </si>
+  <si>
+    <t>Before midterm examinations</t>
+  </si>
+  <si>
+    <t>After midterm examinations or after the incurrence of unexcused absences (20% of the total number of required school days)</t>
+  </si>
+  <si>
+    <t>What should a student apply if he intends to transfer to another school</t>
+  </si>
+  <si>
+    <t>What should a student who intends to transfer to another school apply?</t>
+  </si>
+  <si>
+    <t>is withdrawal of courses allowed after the close of the enrollment period?</t>
+  </si>
+  <si>
+    <t>When can the certificate of transfer credentials be issued to a student?</t>
+  </si>
+  <si>
+    <t>After the applicant has been cleared of all financial and property liabilities.</t>
+  </si>
+  <si>
+    <t>What is a term?</t>
+  </si>
+  <si>
+    <t>Term refers to a semester or summer a student is enrolled in.</t>
+  </si>
+  <si>
+    <t>Once a student is enrolled, what is he expected to settle within the term?</t>
+  </si>
+  <si>
+    <t>Full tuition and other school fees</t>
+  </si>
+  <si>
+    <t>In what ways can the tuition and other school fees be paid?</t>
+  </si>
+  <si>
+    <t>In full at the time of enrollment or by installment</t>
+  </si>
+  <si>
+    <t>Who sets the amount for the tuition and other school fees?</t>
+  </si>
+  <si>
+    <t>Office of Finance</t>
+  </si>
+  <si>
+    <t>Discounts vary depending on the form of payment, whether in cash, credit card, or others.</t>
+  </si>
+  <si>
+    <t>How does the full payment discount vary?</t>
+  </si>
+  <si>
+    <t>Are there full payment discounts granted?</t>
+  </si>
+  <si>
+    <t>Who sets the period for the granting of discounts on full payment of school fees?</t>
+  </si>
+  <si>
+    <t>What should students do to avail of the full payment discount?</t>
+  </si>
+  <si>
+    <t>Apply at the Accounting Office within a specified time during the enrollment period</t>
+  </si>
+  <si>
+    <t>What can students do if they cannot pay their tuition and other fees in full during enrollment?</t>
+  </si>
+  <si>
+    <t>Where can teachers view the payment status of students?</t>
+  </si>
+  <si>
+    <t>On the class lists in ISMIS.</t>
+  </si>
+  <si>
+    <t>When can a refund of the amount paid be made to the student if he withdraws their enrollment?</t>
+  </si>
+  <si>
+    <t>During the enrollment period, but prior to the opening of classes.</t>
+  </si>
+  <si>
+    <t>Where can I get a form for fee adjustment for children of University employees and members of the same family?</t>
+  </si>
+  <si>
+    <t>Office of the Vice President for Finance</t>
+  </si>
+  <si>
+    <t>How do I pay my tuition on an installment basis?</t>
+  </si>
+  <si>
+    <t>Downpayment is made at enrollment according to the amount 
+fixed by the University, and the balance must be paid monthly or during scheduled examination dates,</t>
+  </si>
+  <si>
+    <t>They  may settle their account on an installment basis provided that the downpayment is made at enrollment according to the amount fixed by the University, and that the balance must be paid monthly or on scheduled examination dates.</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment within the enrollment period of a regular semester?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment within the first week of classes of a regular semester?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment within the second week of classes of a regular semester?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment after the second week of classes of a regular semester?</t>
+  </si>
+  <si>
+    <t>Where can I pay my tuition?</t>
+  </si>
+  <si>
+    <t>At the cashier which is located at the ground floor of Bunzel building, or through online means</t>
+  </si>
+  <si>
+    <t>P500.00 non-refundable</t>
+  </si>
+  <si>
+    <t>Matriculation fee plus 10% of the remaining total school fees</t>
+  </si>
+  <si>
+    <t>Matriculation fee plus 20% of the remaining total school fees</t>
+  </si>
+  <si>
+    <t>100% of total school fees</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment within the enrollment period of a summer term?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment within the first week of classes of a summer term?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment within the fourth to sixth day of classes of a summer term?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment after the sixth day of classes of a summer term?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment during a regular semester?</t>
+  </si>
+  <si>
+    <t>How much is the charge for withdrawing my enrollment during summer?</t>
+  </si>
+  <si>
+    <t>Within the enrollment period - P500.00 non-refundable
+Within the 1st week of classes - Matriculation fee plus 10% of the remaining total school fees
+Within the 2nd week of classes - Matriculation fee plus 20% of the remaining total school fees
+After the 2nd week of classes - 100% of total school fees</t>
+  </si>
+  <si>
+    <t>Within the enrollment period - P500.00 non-refundable
+Within the 1st - 3rd day of classes - Matriculation fee plus 10% of the remaining total school fees
+Within the 4th - 6th day of classes - Matriculation fee plus 20% of the remaining total school fees
+7th day of classes onwards - 100% of total school fees</t>
+  </si>
+  <si>
+    <t>How much is the discount granted for members of the same family enrolling together?</t>
+  </si>
+  <si>
+    <t>5% discount each on tuition fees</t>
+  </si>
+  <si>
+    <t>What is the limit of the number of students that can be discounted for being members of the same family?</t>
+  </si>
+  <si>
+    <t>Up to how many students under the same family can be granted tuition fee discount?</t>
+  </si>
+  <si>
+    <t>Four students</t>
+  </si>
+  <si>
+    <t>When can an enrolled student be considered full-time?</t>
+  </si>
+  <si>
+    <t>If he/she carries a regular load prescribed in his/her curriculum for a given time.</t>
+  </si>
+  <si>
+    <t>How is the curricular year of a student determined?</t>
+  </si>
+  <si>
+    <t>The curricular year of a student is determined by the number of units earned in the curriculum of his/her program.</t>
+  </si>
+  <si>
+    <t>How is the year level standing determined?</t>
+  </si>
+  <si>
+    <t>Can students take a course ahead of its pre-requisites?</t>
+  </si>
+  <si>
+    <t>What happens if a student takes a course ahead of its pre-requisutes?</t>
+  </si>
+  <si>
+    <t>The course shall be nullified and taken again.</t>
+  </si>
+  <si>
+    <t>Should I re-enroll all the co-requisites of a failed course?</t>
+  </si>
+  <si>
+    <t>No.  A failed co-requisite course can be re-enrolled 
+without re-enrolling the other course the student has passed.</t>
+  </si>
+  <si>
+    <t>What is the minimum portion of the curricuar program requirements transferees should take for graduation at the university?</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>How much of the curricular program should I take as a transferee for graduation at the university?</t>
+  </si>
+  <si>
+    <t>Can the regular students join a petition or tutorial course in advance?</t>
+  </si>
+  <si>
+    <t>Basic Education Department</t>
+  </si>
+  <si>
+    <t>USC Email and Canvas</t>
+  </si>
+  <si>
+    <t>General Courses</t>
+  </si>
+  <si>
+    <t>EDM</t>
+  </si>
+  <si>
+    <t>Education with a Mission</t>
+  </si>
+  <si>
+    <t>TPE</t>
+  </si>
+  <si>
+    <t>Physical Education</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Grade Point Average</t>
+  </si>
+  <si>
+    <t>CWTS</t>
+  </si>
+  <si>
+    <t>Civic Welfare Training Service</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>Literacy Training Service</t>
+  </si>
+  <si>
+    <t>ROTC</t>
+  </si>
+  <si>
+    <t>Reserve Officers Training Corps</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>Transcript of Records</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Maximum Allowable Residency</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>No credit</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>Carolinian Honor's List</t>
+  </si>
+  <si>
+    <t>CLG</t>
+  </si>
+  <si>
+    <t>Carolinian Lifestyle Guide</t>
+  </si>
+  <si>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>Supreme Student Council</t>
+  </si>
+  <si>
+    <t>AGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awards and Graduation Committee </t>
+  </si>
+  <si>
+    <t>Rationale of Discipline and positive School Climate</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>Persons with Disabilities</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>Student Development Mentors</t>
+  </si>
+  <si>
+    <t>SDEVCOM</t>
+  </si>
+  <si>
+    <t>Student Development Committee</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Discipline Officer </t>
+  </si>
+  <si>
+    <t>Student Discipline Committee</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>CHL Rationale and Aims</t>
   </si>
 </sst>
 </file>
@@ -2119,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12015F-344C-4C50-9691-EBF7D05F5397}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView topLeftCell="A230" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2160,10 +2651,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2171,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5">
         <v>1948</v>
@@ -2182,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2193,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2204,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2215,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2226,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2237,10 +2728,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2248,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2259,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2270,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2281,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2292,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2303,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2314,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2325,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2336,10 +2827,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -2347,10 +2838,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2358,10 +2849,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2369,10 +2860,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2380,10 +2871,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2391,10 +2882,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2402,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -2413,10 +2904,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2424,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -2435,10 +2926,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -2446,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2457,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2468,10 +2959,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2479,10 +2970,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2490,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2501,10 +2992,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2512,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2523,10 +3014,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2534,10 +3025,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2545,10 +3036,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2556,10 +3047,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2567,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2578,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2589,10 +3080,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2600,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2611,10 +3102,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2622,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2633,10 +3124,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2644,10 +3135,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2655,10 +3146,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2666,10 +3157,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2677,10 +3168,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2688,10 +3179,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2699,10 +3190,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2710,10 +3201,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2721,10 +3212,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,10 +3223,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2743,10 +3234,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2754,10 +3245,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2765,10 +3256,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2776,10 +3267,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2787,10 +3278,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2798,10 +3289,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2809,10 +3300,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2820,10 +3311,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2831,10 +3322,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2842,10 +3333,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,10 +3344,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2864,10 +3355,10 @@
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2875,10 +3366,10 @@
         <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2886,10 +3377,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2897,10 +3388,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2908,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2919,10 +3410,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -2930,10 +3421,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2941,10 +3432,10 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -2952,10 +3443,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2963,10 +3454,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2974,10 +3465,10 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2985,10 +3476,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2996,10 +3487,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3007,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3018,10 +3509,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3029,10 +3520,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3040,749 +3531,1746 @@
         <v>7</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C83" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>7</v>
+      </c>
       <c r="B84" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>7</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>7</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="C85" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B86" s="5" t="s">
+    <row r="88" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C88" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>7</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="C89" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>7</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C91" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>7</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="5" t="s">
+      <c r="C92" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>7</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C93" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>7</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>7</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>7</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>7</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>7</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>7</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>7</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>7</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>7</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>7</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>8</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>8</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>8</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>8</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>8</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>8</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>8</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>8</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>532</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>8</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>8</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>8</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>8</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>8</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>8</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>8</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>8</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>8</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>8</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>8</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>8</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>8</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>8</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>8</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>8</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>8</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>8</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>8</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>8</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>8</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>8</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>8</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>8</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>8</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>8</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>8</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>8</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>8</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>8</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>8</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>8</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>8</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>8</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>8</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>8</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>8</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>8</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>8</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>8</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>8</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>8</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>8</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>8</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>8</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>8</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>8</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>8</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>8</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>8</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C162" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>8</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C163" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>8</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C164" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>8</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C165" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>8</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>8</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>8</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C168" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>8</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C169" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>8</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C170" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>549</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>9</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>9</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>9</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>9</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>9</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>9</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>9</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B92" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C92" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B93" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C93" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B94" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C94" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B95" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B96" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B97" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C98" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B99" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C99" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B100" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B101" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="5" t="s">
+      <c r="C178" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>9</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>9</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>9</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>9</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>9</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>9</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>9</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>9</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>9</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C187" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B103" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>8</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B105" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B110" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C111" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B112" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C112" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C113" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C114" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C115" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C116" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C117" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B118" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B119" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B120" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B121" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B122" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B123" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B124" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C125" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B127" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B128" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B129" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C129" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C130" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B131" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C131" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B132" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B133" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B134" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="B135" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B136" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B137" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B138" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B139" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B140" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B141" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B143" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B144" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B145" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B146" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B147" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B148" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B149" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B150" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="B151" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B152" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B153" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B154" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B155" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B156" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B157" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B158" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B159" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B160" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C161" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C162" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="C163" t="s">
+    <row r="188" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>9</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C188" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="189" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>9</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C165" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>9</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>9</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>9</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C192" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>9</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C193" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>9</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>9</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>9</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C166" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>9</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C167" t="s">
+    <row r="198" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>9</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>9</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C199" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>9</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>9</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>9</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>9</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>9</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>9</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>9</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>9</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C207" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>10</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C208" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>10</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>10</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C210" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>10</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>10</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C212" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>10</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>10</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>10</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C215" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>10</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>10</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>10</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>10</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>10</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>10</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>10</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C222" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>10</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>10</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>10</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>10</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C226" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>10</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>10</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>10</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>10</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <v>10</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>10</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>10</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>10</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>11</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C235" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C168" t="s">
+    <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B239" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B240" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B241" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B242" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B243" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B169" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C169" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C170" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C171" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C173" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B174" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B175" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -3792,10 +5280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3809,10 +5297,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3820,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3831,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3842,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3853,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3864,10 +5352,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3875,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3886,10 +5374,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3897,10 +5385,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3908,10 +5396,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3919,10 +5407,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3930,10 +5418,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3941,10 +5429,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3952,10 +5440,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3963,10 +5451,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3974,10 +5462,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3985,10 +5473,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3996,10 +5484,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4007,10 +5495,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4018,10 +5506,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4029,10 +5517,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
         <v>252</v>
-      </c>
-      <c r="C21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4040,10 +5528,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
         <v>253</v>
-      </c>
-      <c r="C22" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4051,10 +5539,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4062,10 +5550,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4073,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4084,10 +5572,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4095,10 +5583,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4106,10 +5594,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4117,10 +5605,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4128,10 +5616,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4139,10 +5627,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4150,10 +5638,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4161,10 +5649,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4172,10 +5660,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4183,10 +5671,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4194,10 +5682,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4205,10 +5693,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4216,10 +5704,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C38" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4227,10 +5715,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C39" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4238,10 +5726,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4249,10 +5737,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4260,10 +5748,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4271,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4282,10 +5770,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4293,10 +5781,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4304,32 +5792,32 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C46" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>436</v>
       </c>
       <c r="C47" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4337,10 +5825,257 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C49" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>530</v>
+      </c>
+      <c r="C52" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>658</v>
+      </c>
+      <c r="C54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>660</v>
+      </c>
+      <c r="C55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>646</v>
+      </c>
+      <c r="C56" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>648</v>
+      </c>
+      <c r="C57" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>650</v>
+      </c>
+      <c r="C58" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>652</v>
+      </c>
+      <c r="C59" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>654</v>
+      </c>
+      <c r="C60" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>656</v>
+      </c>
+      <c r="C61" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>662</v>
+      </c>
+      <c r="C62" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>663</v>
+      </c>
+      <c r="C63" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>666</v>
+      </c>
+      <c r="C64" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>668</v>
+      </c>
+      <c r="C65" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>670</v>
+      </c>
+      <c r="C66" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>672</v>
+      </c>
+      <c r="C67" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>675</v>
+      </c>
+      <c r="C68" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>677</v>
+      </c>
+      <c r="C69" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>679</v>
+      </c>
+      <c r="C70" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>681</v>
+      </c>
+      <c r="C71" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>684</v>
+      </c>
+      <c r="C72" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -4352,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9146E0-4BC1-4E44-8D90-279A5A2C9FAC}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4363,418 +6098,586 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
         <v>295</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" t="s">
         <v>300</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" t="s">
         <v>245</v>
       </c>
-      <c r="B18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="B20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="B27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="B29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>268</v>
-      </c>
-    </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
       <c r="B35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
       <c r="B39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B50" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B58" t="s">
         <v>354</v>
-      </c>
-      <c r="B55" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="B61" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B66" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B67" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="B70" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>327</v>
+        <v>643</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>643</v>
+      </c>
       <c r="B72" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>643</v>
+      </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4786,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA4CAE-A54D-4C8C-9F41-F390D4C38DA7}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4893,7 +6796,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4921,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4935,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4977,7 +6880,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4991,7 +6894,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -5005,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -5013,13 +6916,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5030,10 +6933,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5044,10 +6947,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5058,10 +6961,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -5072,10 +6975,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5086,10 +6989,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5100,10 +7003,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -5114,10 +7017,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5128,10 +7031,10 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5142,10 +7045,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5156,10 +7059,10 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5167,13 +7070,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5181,13 +7084,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5195,13 +7098,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5209,13 +7112,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5226,10 +7129,10 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5237,13 +7140,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5251,13 +7154,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5268,10 +7171,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5282,10 +7185,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5296,10 +7199,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5310,10 +7213,10 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5321,13 +7224,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5338,10 +7241,10 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5349,13 +7252,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5366,10 +7269,10 @@
         <v>8</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5377,13 +7280,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -5394,10 +7297,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,10 +7311,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -5422,10 +7325,10 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -5436,10 +7339,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5450,10 +7353,10 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5464,10 +7367,10 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5475,13 +7378,13 @@
         <v>48</v>
       </c>
       <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
         <v>10</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5492,10 +7395,10 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5506,10 +7409,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5520,10 +7423,10 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5534,10 +7437,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5548,10 +7451,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5562,10 +7465,10 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5576,10 +7479,10 @@
         <v>10</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5590,10 +7493,10 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5604,10 +7507,10 @@
         <v>10</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5618,10 +7521,10 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -5629,13 +7532,13 @@
         <v>59</v>
       </c>
       <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
         <v>11</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5646,10 +7549,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>330</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/2. Questions/Questions and Answers.xlsx
+++ b/2. Questions/Questions and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\NLP_Student_Manual_Chatbot\2. Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46194321-8D31-4FBF-BD6D-6C0F65466A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EB55D-6722-4613-A860-7318615ED295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
+    <workbookView xWindow="5760" yWindow="1476" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="3" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="688">
   <si>
     <t>QUESTION</t>
   </si>
@@ -48,12 +48,6 @@
     <t>ANSWER</t>
   </si>
   <si>
-    <t>Block Enrollment</t>
-  </si>
-  <si>
-    <t>Non Block Enrollment</t>
-  </si>
-  <si>
     <t>Course Accreditation</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
   </si>
   <si>
     <t>CHL Awards for Commencement Rites</t>
-  </si>
-  <si>
-    <t>School Uniform Designs</t>
   </si>
   <si>
     <t>Directory of Academic Programs and Departments</t>
@@ -2193,6 +2184,21 @@
   </si>
   <si>
     <t>CHL Rationale and Aims</t>
+  </si>
+  <si>
+    <t>Office of Alumni Affairs, Scholarships and Job Placement</t>
+  </si>
+  <si>
+    <t>OAASJP</t>
+  </si>
+  <si>
+    <t>Enrollment Timeline</t>
+  </si>
+  <si>
+    <t>Enrollment Steps</t>
+  </si>
+  <si>
+    <t>Enrollment Concerns</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2632,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2640,10 +2646,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2651,10 +2657,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2662,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5">
         <v>1948</v>
@@ -2673,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2684,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2695,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2706,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2717,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2728,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2739,10 +2745,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2750,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2761,10 +2767,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2772,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2783,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2794,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2805,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2816,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2827,10 +2833,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -2838,10 +2844,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2849,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2860,10 +2866,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2871,10 +2877,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2882,10 +2888,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2893,10 +2899,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -2904,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2915,10 +2921,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -2926,10 +2932,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -2937,10 +2943,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2948,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2959,10 +2965,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2970,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2981,10 +2987,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,10 +2998,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3003,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3014,10 +3020,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3025,10 +3031,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3036,10 +3042,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -3047,10 +3053,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3058,10 +3064,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,10 +3075,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -3080,10 +3086,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -3091,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -3102,10 +3108,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3113,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3124,10 +3130,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3135,10 +3141,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3146,10 +3152,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3157,10 +3163,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3168,10 +3174,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3179,10 +3185,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3190,10 +3196,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3201,10 +3207,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3212,10 +3218,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -3223,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -3234,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -3245,10 +3251,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -3256,10 +3262,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3267,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3278,10 +3284,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3289,10 +3295,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3300,10 +3306,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3311,10 +3317,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -3322,10 +3328,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3333,10 +3339,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3344,10 +3350,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3355,10 +3361,10 @@
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3366,10 +3372,10 @@
         <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3377,10 +3383,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3388,10 +3394,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -3399,10 +3405,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -3410,10 +3416,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3421,10 +3427,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -3432,10 +3438,10 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3443,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3454,10 +3460,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3465,10 +3471,10 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3476,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3487,10 +3493,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3498,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3509,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3520,10 +3526,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3531,10 +3537,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3542,10 +3548,10 @@
         <v>7</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3553,10 +3559,10 @@
         <v>7</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3564,10 +3570,10 @@
         <v>7</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3575,10 +3581,10 @@
         <v>7</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3586,10 +3592,10 @@
         <v>7</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3597,10 +3603,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3608,10 +3614,10 @@
         <v>7</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3619,10 +3625,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3630,10 +3636,10 @@
         <v>7</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3641,10 +3647,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3652,10 +3658,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3663,10 +3669,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3674,10 +3680,10 @@
         <v>7</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3685,10 +3691,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3696,10 +3702,10 @@
         <v>7</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3707,10 +3713,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3718,10 +3724,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3729,10 +3735,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3740,10 +3746,10 @@
         <v>7</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3751,10 +3757,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3762,10 +3768,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3773,10 +3779,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3784,10 +3790,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3795,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3806,10 +3812,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3817,10 +3823,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3828,10 +3834,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3839,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -3850,10 +3856,10 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3861,10 +3867,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3872,10 +3878,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3883,10 +3889,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -3894,10 +3900,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3905,10 +3911,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3916,10 +3922,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3927,10 +3933,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3938,10 +3944,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3949,10 +3955,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3960,10 +3966,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3971,10 +3977,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3982,10 +3988,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3993,10 +3999,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4004,10 +4010,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -4015,10 +4021,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4026,10 +4032,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4037,10 +4043,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4048,10 +4054,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4059,10 +4065,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4070,10 +4076,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4081,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4092,10 +4098,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4103,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4114,10 +4120,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4125,10 +4131,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4136,10 +4142,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4147,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4158,10 +4164,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4169,10 +4175,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4180,10 +4186,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4191,10 +4197,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4202,10 +4208,10 @@
         <v>8</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4213,10 +4219,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4224,10 +4230,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4235,10 +4241,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4246,10 +4252,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4257,10 +4263,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4268,10 +4274,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4279,10 +4285,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4290,10 +4296,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4301,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4312,10 +4318,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4323,10 +4329,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4334,10 +4340,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4345,10 +4351,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4356,10 +4362,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4367,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4378,10 +4384,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4389,10 +4395,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4400,10 +4406,10 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C162" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4411,10 +4417,10 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C163" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4422,10 +4428,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C164" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -4433,10 +4439,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C165" t="s">
         <v>537</v>
-      </c>
-      <c r="C165" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4444,10 +4450,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4455,10 +4461,10 @@
         <v>8</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4466,10 +4472,10 @@
         <v>8</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C168" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4477,10 +4483,10 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C169" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4488,10 +4494,10 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C170" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -4499,10 +4505,10 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4510,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4521,10 +4527,10 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4532,10 +4538,10 @@
         <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -4543,10 +4549,10 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -4554,10 +4560,10 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -4565,10 +4571,10 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4576,10 +4582,10 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4587,10 +4593,10 @@
         <v>9</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4598,10 +4604,10 @@
         <v>9</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4609,10 +4615,10 @@
         <v>9</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4620,10 +4626,10 @@
         <v>9</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -4631,10 +4637,10 @@
         <v>9</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4642,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4653,10 +4659,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4664,10 +4670,10 @@
         <v>9</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4675,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4686,10 +4692,10 @@
         <v>9</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4697,10 +4703,10 @@
         <v>9</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4708,10 +4714,10 @@
         <v>9</v>
       </c>
       <c r="B190" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -4719,10 +4725,10 @@
         <v>9</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -4730,10 +4736,10 @@
         <v>9</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C192" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4741,10 +4747,10 @@
         <v>9</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C193" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4752,10 +4758,10 @@
         <v>9</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4763,10 +4769,10 @@
         <v>9</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4774,10 +4780,10 @@
         <v>9</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4785,10 +4791,10 @@
         <v>9</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4796,10 +4802,10 @@
         <v>9</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4807,10 +4813,10 @@
         <v>9</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C199" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4818,10 +4824,10 @@
         <v>9</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4829,10 +4835,10 @@
         <v>9</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4840,10 +4846,10 @@
         <v>9</v>
       </c>
       <c r="B202" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4851,10 +4857,10 @@
         <v>9</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4862,10 +4868,10 @@
         <v>9</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4873,10 +4879,10 @@
         <v>9</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4884,10 +4890,10 @@
         <v>9</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4895,10 +4901,10 @@
         <v>9</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C207" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4906,10 +4912,10 @@
         <v>10</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C208" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4917,10 +4923,10 @@
         <v>10</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4928,10 +4934,10 @@
         <v>10</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C210" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4939,10 +4945,10 @@
         <v>10</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4950,10 +4956,10 @@
         <v>10</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C212" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4961,10 +4967,10 @@
         <v>10</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4972,10 +4978,10 @@
         <v>10</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4983,10 +4989,10 @@
         <v>10</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4994,10 +5000,10 @@
         <v>10</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -5005,10 +5011,10 @@
         <v>10</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5016,10 +5022,10 @@
         <v>10</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5027,10 +5033,10 @@
         <v>10</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5038,10 +5044,10 @@
         <v>10</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -5049,10 +5055,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5060,10 +5066,10 @@
         <v>10</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C222" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5071,10 +5077,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5082,10 +5088,10 @@
         <v>10</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5093,10 +5099,10 @@
         <v>10</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5104,10 +5110,10 @@
         <v>10</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C226" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5115,10 +5121,10 @@
         <v>10</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5126,10 +5132,10 @@
         <v>10</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5137,10 +5143,10 @@
         <v>10</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5148,10 +5154,10 @@
         <v>10</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5159,10 +5165,10 @@
         <v>10</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5170,10 +5176,10 @@
         <v>10</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5181,10 +5187,10 @@
         <v>10</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5192,10 +5198,10 @@
         <v>10</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -5203,74 +5209,74 @@
         <v>11</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C235" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B236" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B237" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B238" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B239" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B240" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B241" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B242" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B243" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5280,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5294,13 +5300,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5308,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5319,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5330,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5341,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5352,10 +5358,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5363,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5374,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5385,10 +5391,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5396,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5407,10 +5413,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5418,10 +5424,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5429,10 +5435,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5440,10 +5446,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5451,10 +5457,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5462,10 +5468,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5473,10 +5479,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5484,10 +5490,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5495,10 +5501,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5506,10 +5512,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5517,10 +5523,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5528,10 +5534,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5539,10 +5545,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5550,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5561,10 +5567,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5572,10 +5578,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5583,10 +5589,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5594,10 +5600,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5605,10 +5611,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5616,10 +5622,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5627,10 +5633,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5638,10 +5644,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5649,10 +5655,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5660,10 +5666,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5671,10 +5677,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5682,10 +5688,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5693,10 +5699,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C37" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5704,10 +5710,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5715,10 +5721,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5726,10 +5732,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5737,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5748,10 +5754,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5759,10 +5765,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5770,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5781,10 +5787,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5792,10 +5798,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5803,10 +5809,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C47" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5814,10 +5820,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C48" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5825,10 +5831,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C49" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5836,10 +5842,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C50" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5847,10 +5853,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C51" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5858,10 +5864,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C52" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5869,10 +5875,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C53" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5880,10 +5886,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C54" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5891,10 +5897,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C55" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5902,10 +5908,10 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C56" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5913,10 +5919,10 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C57" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5924,10 +5930,10 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C58" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5935,10 +5941,10 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C59" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5946,10 +5952,10 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C60" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -5957,10 +5963,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C61" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5968,10 +5974,10 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C62" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -5979,10 +5985,10 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C63" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -5990,10 +5996,10 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C64" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6001,10 +6007,10 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C65" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6012,10 +6018,10 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C66" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6023,10 +6029,10 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C67" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6034,10 +6040,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C68" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6045,10 +6051,10 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C69" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6056,25 +6062,42 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
+        <v>676</v>
+      </c>
+      <c r="C70" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>678</v>
+      </c>
+      <c r="C71" t="s">
         <v>679</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>681</v>
+      </c>
+      <c r="C72" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>681</v>
-      </c>
-      <c r="C71" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
         <v>684</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>683</v>
       </c>
     </row>
@@ -6098,586 +6121,586 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" t="s">
         <v>293</v>
-      </c>
-      <c r="B5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
         <v>298</v>
-      </c>
-      <c r="B11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
         <v>243</v>
-      </c>
-      <c r="B20" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
         <v>304</v>
-      </c>
-      <c r="B25" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" t="s">
         <v>350</v>
-      </c>
-      <c r="B57" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B73" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6690,7 +6713,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A37" sqref="A37:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6700,16 +6723,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6723,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -6737,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -6751,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -6765,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6779,7 +6802,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6793,10 +6816,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6810,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6824,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6838,7 +6861,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -6852,7 +6875,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6866,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6880,7 +6903,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6894,7 +6917,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6908,7 +6931,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -6922,7 +6945,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6936,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -6950,7 +6973,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6964,7 +6987,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6978,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -6992,7 +7015,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7006,7 +7029,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7020,7 +7043,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7034,7 +7057,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7048,7 +7071,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7062,7 +7085,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7076,7 +7099,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7090,7 +7113,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7104,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7118,7 +7141,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7132,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7146,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7160,7 +7183,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7174,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7188,7 +7211,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7202,7 +7225,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -7216,7 +7239,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -7230,7 +7253,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -7244,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -7252,13 +7275,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -7269,10 +7292,10 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -7283,10 +7306,10 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -7300,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -7314,7 +7337,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -7328,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -7342,7 +7365,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -7356,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -7370,7 +7393,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -7384,7 +7407,7 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -7398,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -7412,7 +7435,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -7426,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -7454,7 +7477,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -7468,7 +7491,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -7482,7 +7505,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -7496,7 +7519,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -7510,7 +7533,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7524,7 +7547,7 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -7538,7 +7561,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -7552,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -7576,10 +7599,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7587,7 +7610,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7595,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7603,7 +7626,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7611,7 +7634,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7619,7 +7642,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7627,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7635,7 +7658,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7643,7 +7666,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7651,7 +7674,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7659,7 +7682,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/2. Questions/Questions and Answers.xlsx
+++ b/2. Questions/Questions and Answers.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\NLP_Student_Manual_Chatbot\2. Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EB55D-6722-4613-A860-7318615ED295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C326AA0D-B9E8-4D31-A2B4-DEB8C682EEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1476" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="3" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Abbreviations" sheetId="5" r:id="rId2"/>
+    <sheet name="Table (CAT#0 - Abbreviations)" sheetId="5" r:id="rId2"/>
     <sheet name="Table (CAT#6 - Offices)" sheetId="6" r:id="rId3"/>
-    <sheet name="Sections" sheetId="2" r:id="rId4"/>
-    <sheet name="Articles" sheetId="4" r:id="rId5"/>
+    <sheet name="Table (CAT#29 - Services)" sheetId="7" r:id="rId4"/>
+    <sheet name="Table (CAT#30 - Departments)" sheetId="8" r:id="rId5"/>
+    <sheet name="Sections" sheetId="2" r:id="rId6"/>
+    <sheet name="Articles" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="700">
   <si>
     <t>QUESTION</t>
   </si>
@@ -69,21 +71,6 @@
     <t>Course Withdrawal</t>
   </si>
   <si>
-    <t>Additional Enrollment Steps (Freshmen)</t>
-  </si>
-  <si>
-    <t>Additional Enrollment Steps (International student)</t>
-  </si>
-  <si>
-    <t>Additional Enrollment Steps (Transferee)</t>
-  </si>
-  <si>
-    <t>Additional Enrollment Steps (Graduate student)</t>
-  </si>
-  <si>
-    <t>Additional Enrollment Steps (Juris Doctor)</t>
-  </si>
-  <si>
     <t>Additional Enrollment Steps (Returnee)</t>
   </si>
   <si>
@@ -156,13 +143,7 @@
     <t>University-Wide Discipline and Persons in Authority</t>
   </si>
   <si>
-    <t>Recommended Disciplinary Actions by Person in Authority</t>
-  </si>
-  <si>
     <t>Categories and Ranking of Offenses</t>
-  </si>
-  <si>
-    <t>Table of Offenses</t>
   </si>
   <si>
     <t>Clearance and Hold Orders</t>
@@ -1141,9 +1122,6 @@
   </si>
   <si>
     <t>Senior High School</t>
-  </si>
-  <si>
-    <t>insert the text descriptions of the schools and departments</t>
   </si>
   <si>
     <t>Where can program-specific requirements may 
@@ -2199,6 +2177,66 @@
   </si>
   <si>
     <t>Enrollment Concerns</t>
+  </si>
+  <si>
+    <t>Admission Steps for Freshmen</t>
+  </si>
+  <si>
+    <t>Admission Steps for International Students</t>
+  </si>
+  <si>
+    <t>Admission Steps for Transferee</t>
+  </si>
+  <si>
+    <t>Admission Steps for Graduate Students</t>
+  </si>
+  <si>
+    <t>Admission Steps for Juris Doctor</t>
+  </si>
+  <si>
+    <t>College Entrance Examination</t>
+  </si>
+  <si>
+    <t>Post-Admission Enrollment Steps</t>
+  </si>
+  <si>
+    <t>Admission Steps</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>Student Manual</t>
+  </si>
+  <si>
+    <t>Enrollment Guide</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>BS Accountancy</t>
+  </si>
+  <si>
+    <t>BS Management Accounting</t>
+  </si>
+  <si>
+    <t>MS in Accountancy Major In Management Accounting</t>
+  </si>
+  <si>
+    <t>Accountancy</t>
+  </si>
+  <si>
+    <t>Chair: Wendell K. Ang, JD-ILP, CPA (wkang@usc.edu.ph), Assistant Chair: Mary Anne B. Jamisola-Adriano, JD, CPA (majamisola@usc.edu.ph), Secretary: Venus M. Branzuela (vmbranzuela@usc.edu.ph)</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2282,6 +2320,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2618,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12015F-344C-4C50-9691-EBF7D05F5397}">
   <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2632,7 +2672,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2646,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2657,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2668,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5">
         <v>1948</v>
@@ -2679,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2690,10 +2730,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2701,10 +2741,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2712,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2723,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2734,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2745,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2756,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2767,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2778,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2789,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2800,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2811,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2822,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2833,10 +2873,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -2844,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2855,10 +2895,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2866,10 +2906,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2877,10 +2917,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2888,10 +2928,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2899,10 +2939,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -2910,10 +2950,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2921,10 +2961,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -2932,10 +2972,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -2943,10 +2983,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2954,10 +2994,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -2965,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2976,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2987,10 +3027,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2998,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3009,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3020,10 +3060,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3031,10 +3071,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3042,10 +3082,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -3053,10 +3093,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3064,10 +3104,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -3075,10 +3115,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -3086,10 +3126,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -3097,10 +3137,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -3108,10 +3148,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3119,10 +3159,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3130,10 +3170,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3141,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3152,10 +3192,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3163,10 +3203,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3174,10 +3214,10 @@
         <v>4</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3185,10 +3225,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3196,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3207,10 +3247,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3218,10 +3258,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -3229,10 +3269,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -3240,10 +3280,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -3251,10 +3291,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -3262,10 +3302,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3273,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3284,10 +3324,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3295,10 +3335,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3306,10 +3346,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3317,10 +3357,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -3328,10 +3368,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3339,10 +3379,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3350,10 +3390,10 @@
         <v>5</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3361,10 +3401,10 @@
         <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3372,10 +3412,10 @@
         <v>6</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3383,10 +3423,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3394,10 +3434,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -3405,10 +3445,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -3416,10 +3456,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3427,10 +3467,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -3438,10 +3478,10 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3449,10 +3489,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3460,10 +3500,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3471,10 +3511,10 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3482,10 +3522,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3493,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3504,10 +3544,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3515,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3526,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3537,10 +3577,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3548,10 +3588,10 @@
         <v>7</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3559,10 +3599,10 @@
         <v>7</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3570,10 +3610,10 @@
         <v>7</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3581,10 +3621,10 @@
         <v>7</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3592,10 +3632,10 @@
         <v>7</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3603,10 +3643,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3614,10 +3654,10 @@
         <v>7</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3625,10 +3665,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3636,10 +3676,10 @@
         <v>7</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3647,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3658,10 +3698,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3669,10 +3709,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3680,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3691,10 +3731,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3702,10 +3742,10 @@
         <v>7</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3713,10 +3753,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3724,10 +3764,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3735,10 +3775,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3746,10 +3786,10 @@
         <v>7</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3757,10 +3797,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3768,10 +3808,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3779,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3790,10 +3830,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3801,10 +3841,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3812,10 +3852,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3823,10 +3863,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3834,10 +3874,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3845,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -3856,10 +3896,10 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3867,10 +3907,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3878,10 +3918,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3889,10 +3929,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -3900,10 +3940,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3911,10 +3951,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3922,10 +3962,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3933,10 +3973,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3944,10 +3984,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3955,10 +3995,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3966,10 +4006,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3977,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3988,10 +4028,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3999,10 +4039,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4010,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -4021,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4032,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4043,10 +4083,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4054,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4065,10 +4105,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4076,10 +4116,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4087,10 +4127,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4098,10 +4138,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4109,10 +4149,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4120,10 +4160,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4131,10 +4171,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4142,10 +4182,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4153,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4164,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4175,10 +4215,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4186,10 +4226,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4197,10 +4237,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4208,10 +4248,10 @@
         <v>8</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4219,10 +4259,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4230,10 +4270,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4241,10 +4281,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4252,10 +4292,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4263,10 +4303,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4274,10 +4314,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4285,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4296,10 +4336,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4307,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4318,10 +4358,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4329,10 +4369,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4340,10 +4380,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4351,10 +4391,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4362,10 +4402,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4373,10 +4413,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4384,10 +4424,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4395,10 +4435,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C161" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4406,10 +4446,10 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C162" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4417,10 +4457,10 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C163" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4428,10 +4468,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C164" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -4439,10 +4479,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C165" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4450,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4461,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4472,10 +4512,10 @@
         <v>8</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C168" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4483,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C169" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4494,10 +4534,10 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C170" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -4505,10 +4545,10 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4516,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4527,10 +4567,10 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4538,10 +4578,10 @@
         <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -4549,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -4560,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -4571,10 +4611,10 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4582,10 +4622,10 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4593,10 +4633,10 @@
         <v>9</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4604,10 +4644,10 @@
         <v>9</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4615,10 +4655,10 @@
         <v>9</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4626,10 +4666,10 @@
         <v>9</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -4637,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4648,10 +4688,10 @@
         <v>9</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4659,10 +4699,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4670,10 +4710,10 @@
         <v>9</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4681,10 +4721,10 @@
         <v>9</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4692,10 +4732,10 @@
         <v>9</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4703,10 +4743,10 @@
         <v>9</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4714,10 +4754,10 @@
         <v>9</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -4725,10 +4765,10 @@
         <v>9</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -4736,10 +4776,10 @@
         <v>9</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C192" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4747,10 +4787,10 @@
         <v>9</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C193" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4758,10 +4798,10 @@
         <v>9</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4769,10 +4809,10 @@
         <v>9</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4780,10 +4820,10 @@
         <v>9</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4791,10 +4831,10 @@
         <v>9</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4802,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4813,10 +4853,10 @@
         <v>9</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C199" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4824,10 +4864,10 @@
         <v>9</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4835,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4846,10 +4886,10 @@
         <v>9</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4857,10 +4897,10 @@
         <v>9</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4868,10 +4908,10 @@
         <v>9</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4879,10 +4919,10 @@
         <v>9</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4890,10 +4930,10 @@
         <v>9</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4901,10 +4941,10 @@
         <v>9</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4912,10 +4952,10 @@
         <v>10</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4923,10 +4963,10 @@
         <v>10</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4934,10 +4974,10 @@
         <v>10</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C210" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4945,10 +4985,10 @@
         <v>10</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4956,10 +4996,10 @@
         <v>10</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C212" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4967,10 +5007,10 @@
         <v>10</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4978,10 +5018,10 @@
         <v>10</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4989,10 +5029,10 @@
         <v>10</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C215" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5000,10 +5040,10 @@
         <v>10</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -5011,10 +5051,10 @@
         <v>10</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5022,10 +5062,10 @@
         <v>10</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5033,10 +5073,10 @@
         <v>10</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5044,10 +5084,10 @@
         <v>10</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -5055,10 +5095,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5066,10 +5106,10 @@
         <v>10</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C222" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5077,10 +5117,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5088,10 +5128,10 @@
         <v>10</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5099,10 +5139,10 @@
         <v>10</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5110,10 +5150,10 @@
         <v>10</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C226" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5121,10 +5161,10 @@
         <v>10</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5132,10 +5172,10 @@
         <v>10</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5143,10 +5183,10 @@
         <v>10</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5154,10 +5194,10 @@
         <v>10</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5165,10 +5205,10 @@
         <v>10</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5176,10 +5216,10 @@
         <v>10</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5187,10 +5227,10 @@
         <v>10</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5198,10 +5238,10 @@
         <v>10</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -5209,74 +5249,74 @@
         <v>11</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C235" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B236" s="12" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B237" s="5" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B238" s="5" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B239" s="5" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B240" s="5" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B241" s="5" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B242" s="5" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B243" s="5" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5288,7 +5328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -5300,13 +5340,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5314,10 +5354,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5325,10 +5365,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5336,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5347,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5358,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5369,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5380,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5391,10 +5431,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5402,10 +5442,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5413,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5424,10 +5464,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5435,10 +5475,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5446,10 +5486,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5457,10 +5497,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5468,10 +5508,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5479,10 +5519,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5490,10 +5530,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5501,10 +5541,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5512,10 +5552,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5523,10 +5563,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5534,10 +5574,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5545,10 +5585,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5556,10 +5596,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5567,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5578,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5589,10 +5629,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5600,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5611,10 +5651,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5622,10 +5662,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5633,10 +5673,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5644,10 +5684,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" t="s">
         <v>316</v>
-      </c>
-      <c r="C32" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5655,10 +5695,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5666,10 +5706,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C34" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5677,10 +5717,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5688,10 +5728,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5699,10 +5739,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5710,10 +5750,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5721,10 +5761,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C39" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5732,10 +5772,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5743,10 +5783,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5754,10 +5794,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5765,10 +5805,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5776,10 +5816,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5787,10 +5827,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5798,10 +5838,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5809,10 +5849,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5820,10 +5860,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5831,10 +5871,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C49" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5842,10 +5882,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C50" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5853,10 +5893,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C51" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5864,10 +5904,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C52" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5875,10 +5915,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5886,10 +5926,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C54" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5897,10 +5937,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C55" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5908,10 +5948,10 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C56" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5919,10 +5959,10 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C57" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5930,10 +5970,10 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C58" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5941,10 +5981,10 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C59" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5952,10 +5992,10 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="C60" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -5963,10 +6003,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C61" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5974,10 +6014,10 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C62" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -5985,10 +6025,10 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C63" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -5996,10 +6036,10 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C64" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6007,10 +6047,10 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C65" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6018,10 +6058,10 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C66" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6029,10 +6069,10 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C67" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6040,10 +6080,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C68" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6051,10 +6091,10 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C69" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6062,10 +6102,10 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C70" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -6073,10 +6113,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C71" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -6084,10 +6124,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C72" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -6095,10 +6135,10 @@
         <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C73" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6110,7 +6150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9146E0-4BC1-4E44-8D90-279A5A2C9FAC}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -6121,586 +6161,586 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B57" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B68" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B70" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B71" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B72" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B73" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6709,11 +6749,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37008-7EF0-48F4-B41A-7A9922CF3695}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="14"/>
+    <col min="4" max="4" width="46.6640625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" s="14">
+        <v>513</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C3" s="14">
+        <v>513</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" s="14">
+        <v>513</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E3D0C7-FD97-4E08-B2CC-D81DF8354FB9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFA4CAE-A54D-4C8C-9F41-F390D4C38DA7}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D46"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6723,16 +6854,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6746,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -6760,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -6774,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -6788,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6802,7 +6933,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6816,11 +6947,9 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -6833,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6847,7 +6976,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6861,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -6875,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6889,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6903,7 +7032,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6917,7 +7046,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6931,7 +7060,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -6945,7 +7074,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6959,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -6973,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6987,7 +7116,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7001,7 +7130,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7015,7 +7144,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7029,7 +7158,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7043,7 +7172,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7057,7 +7186,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7071,7 +7200,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7085,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7093,13 +7222,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7107,13 +7236,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7121,13 +7250,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7135,13 +7264,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7152,10 +7281,10 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7163,13 +7292,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7177,13 +7306,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7194,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>682</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7208,10 +7337,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7222,10 +7351,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -7233,13 +7362,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -7247,13 +7376,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -7261,13 +7390,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>678</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -7278,10 +7407,10 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -7289,13 +7418,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -7303,13 +7432,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -7320,10 +7449,10 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -7334,10 +7463,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -7348,10 +7477,10 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -7362,10 +7491,10 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,10 +7505,10 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -7387,13 +7516,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>680</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -7401,13 +7530,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -7418,10 +7547,10 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -7432,10 +7561,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>683</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -7446,10 +7575,10 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -7460,10 +7589,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -7474,10 +7603,10 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -7485,13 +7614,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -7499,13 +7628,13 @@
         <v>55</v>
       </c>
       <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
         <v>10</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -7513,13 +7642,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -7533,7 +7662,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -7541,13 +7670,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -7555,13 +7684,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -7569,13 +7698,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -7584,105 +7713,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9944EF6B-5BE4-474D-89C0-C1D33ABC3D1D}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>687</v>
+      </c>
+      <c r="C11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/2. Questions/Questions and Answers.xlsx
+++ b/2. Questions/Questions and Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\NLP_Student_Manual_Chatbot\2. Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C326AA0D-B9E8-4D31-A2B4-DEB8C682EEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90C683D-91B4-4322-A9ED-9922ECDFD72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{40531BC3-4381-4E9F-9043-CEEA158DC373}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="697">
   <si>
     <t>QUESTION</t>
   </si>
@@ -777,12 +777,6 @@
   </si>
   <si>
     <t>Human Resource Management Office</t>
-  </si>
-  <si>
-    <t>OAASJ</t>
-  </si>
-  <si>
-    <t>Office of Alumni Affairs, Scholarship and Job Placement Office</t>
   </si>
   <si>
     <t>Office of Naming Rights, Endowments and Scholarships</t>
@@ -2162,9 +2156,6 @@
   </si>
   <si>
     <t>CHL Rationale and Aims</t>
-  </si>
-  <si>
-    <t>Office of Alumni Affairs, Scholarships and Job Placement</t>
   </si>
   <si>
     <t>OAASJP</t>
@@ -2286,7 +2277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2320,8 +2311,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2887,7 +2876,7 @@
         <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3478,10 +3467,10 @@
         <v>6</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3489,10 +3478,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3500,10 +3489,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3511,10 +3500,10 @@
         <v>6</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3522,10 +3511,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3533,10 +3522,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3544,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3555,10 +3544,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3566,10 +3555,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3577,10 +3566,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3588,10 +3577,10 @@
         <v>7</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3599,10 +3588,10 @@
         <v>7</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3610,10 +3599,10 @@
         <v>7</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3621,10 +3610,10 @@
         <v>7</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3632,10 +3621,10 @@
         <v>7</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3643,10 +3632,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3654,10 +3643,10 @@
         <v>7</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -3665,10 +3654,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3676,10 +3665,10 @@
         <v>7</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3687,10 +3676,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3698,10 +3687,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3709,10 +3698,10 @@
         <v>7</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3720,10 +3709,10 @@
         <v>7</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3731,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3742,10 +3731,10 @@
         <v>7</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3753,10 +3742,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3764,10 +3753,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3775,10 +3764,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3786,10 +3775,10 @@
         <v>7</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3797,10 +3786,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3808,10 +3797,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3819,10 +3808,10 @@
         <v>8</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3830,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3841,10 +3830,10 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3852,10 +3841,10 @@
         <v>8</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3863,10 +3852,10 @@
         <v>8</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -3874,10 +3863,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3885,10 +3874,10 @@
         <v>8</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -3896,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3907,10 +3896,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3918,10 +3907,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -3929,10 +3918,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -3940,10 +3929,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3951,10 +3940,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3962,10 +3951,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3973,10 +3962,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -3984,10 +3973,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -3995,10 +3984,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -4006,10 +3995,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -4017,10 +4006,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -4028,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4039,10 +4028,10 @@
         <v>8</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4050,10 +4039,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -4061,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4072,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4083,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4094,10 +4083,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4105,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
@@ -4116,10 +4105,10 @@
         <v>8</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4127,10 +4116,10 @@
         <v>8</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4138,10 +4127,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4149,10 +4138,10 @@
         <v>8</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -4160,10 +4149,10 @@
         <v>8</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4171,10 +4160,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4182,10 +4171,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4193,10 +4182,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4204,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4215,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4226,10 +4215,10 @@
         <v>8</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4237,10 +4226,10 @@
         <v>8</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -4248,10 +4237,10 @@
         <v>8</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4259,10 +4248,10 @@
         <v>8</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4270,10 +4259,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C146" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4281,10 +4270,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4292,10 +4281,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4303,10 +4292,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4314,10 +4303,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4325,10 +4314,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4336,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4347,10 +4336,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4358,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4369,10 +4358,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4380,10 +4369,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4391,10 +4380,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4402,10 +4391,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4413,10 +4402,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4424,10 +4413,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4435,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C161" t="s">
         <v>227</v>
@@ -4446,10 +4435,10 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C162" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4457,10 +4446,10 @@
         <v>8</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C163" t="s">
         <v>523</v>
-      </c>
-      <c r="C163" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4468,10 +4457,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C164" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -4479,10 +4468,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C165" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4490,10 +4479,10 @@
         <v>8</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4501,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4512,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C168" t="s">
         <v>532</v>
-      </c>
-      <c r="C168" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4523,10 +4512,10 @@
         <v>8</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C169" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4534,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C170" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -4545,10 +4534,10 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4556,10 +4545,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4567,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -4578,10 +4567,10 @@
         <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -4589,10 +4578,10 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -4600,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -4611,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4622,10 +4611,10 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4633,10 +4622,10 @@
         <v>9</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4644,10 +4633,10 @@
         <v>9</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4655,10 +4644,10 @@
         <v>9</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4666,10 +4655,10 @@
         <v>9</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -4677,10 +4666,10 @@
         <v>9</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4688,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -4699,10 +4688,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4710,10 +4699,10 @@
         <v>9</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4721,10 +4710,10 @@
         <v>9</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4732,10 +4721,10 @@
         <v>9</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4743,10 +4732,10 @@
         <v>9</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4754,10 +4743,10 @@
         <v>9</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -4765,10 +4754,10 @@
         <v>9</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -4776,10 +4765,10 @@
         <v>9</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C192" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4787,10 +4776,10 @@
         <v>9</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C193" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4798,10 +4787,10 @@
         <v>9</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4809,10 +4798,10 @@
         <v>9</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4820,10 +4809,10 @@
         <v>9</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4831,10 +4820,10 @@
         <v>9</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4842,10 +4831,10 @@
         <v>9</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4853,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C199" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4864,10 +4853,10 @@
         <v>9</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4875,10 +4864,10 @@
         <v>9</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4886,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4897,10 +4886,10 @@
         <v>9</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4908,10 +4897,10 @@
         <v>9</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4919,10 +4908,10 @@
         <v>9</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4930,10 +4919,10 @@
         <v>9</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4941,10 +4930,10 @@
         <v>9</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C207" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4952,10 +4941,10 @@
         <v>10</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C208" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4963,10 +4952,10 @@
         <v>10</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4974,10 +4963,10 @@
         <v>10</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C210" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4985,10 +4974,10 @@
         <v>10</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4996,10 +4985,10 @@
         <v>10</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C212" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -5007,10 +4996,10 @@
         <v>10</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5018,10 +5007,10 @@
         <v>10</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5029,10 +5018,10 @@
         <v>10</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C215" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -5040,10 +5029,10 @@
         <v>10</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -5051,10 +5040,10 @@
         <v>10</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5062,10 +5051,10 @@
         <v>10</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5073,10 +5062,10 @@
         <v>10</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -5084,10 +5073,10 @@
         <v>10</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -5095,10 +5084,10 @@
         <v>10</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5106,10 +5095,10 @@
         <v>10</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C222" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5117,10 +5106,10 @@
         <v>10</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5128,10 +5117,10 @@
         <v>10</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5139,10 +5128,10 @@
         <v>10</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5150,10 +5139,10 @@
         <v>10</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C226" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5161,10 +5150,10 @@
         <v>10</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5172,10 +5161,10 @@
         <v>10</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5183,10 +5172,10 @@
         <v>10</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5194,10 +5183,10 @@
         <v>10</v>
       </c>
       <c r="B230" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C230" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -5205,10 +5194,10 @@
         <v>10</v>
       </c>
       <c r="B231" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5216,10 +5205,10 @@
         <v>10</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5227,10 +5216,10 @@
         <v>10</v>
       </c>
       <c r="B233" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C233" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5238,10 +5227,10 @@
         <v>10</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -5249,74 +5238,74 @@
         <v>11</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C235" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B236" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B237" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B238" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B239" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B240" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B241" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B242" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B243" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5326,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0C351-3687-474E-A31D-3B46FA24EFD7}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C72" sqref="B1:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5456,7 +5445,7 @@
         <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5585,10 +5574,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>673</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5596,10 +5585,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5607,10 +5596,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5618,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5629,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5640,10 +5629,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5651,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5662,10 +5651,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5673,10 +5662,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5684,10 +5673,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5695,10 +5684,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5706,10 +5695,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5717,10 +5706,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5728,10 +5717,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5739,10 +5728,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5750,10 +5739,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5761,10 +5750,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5772,10 +5761,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5783,10 +5772,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5794,10 +5783,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5805,10 +5794,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43" t="s">
         <v>329</v>
-      </c>
-      <c r="C43" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5816,10 +5805,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" t="s">
         <v>330</v>
-      </c>
-      <c r="C44" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5827,10 +5816,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5838,10 +5827,10 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5849,10 +5838,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5860,10 +5849,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C48" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5871,10 +5860,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C49" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5882,10 +5871,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C50" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5893,10 +5882,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C51" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5904,10 +5893,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C52" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5915,10 +5904,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5926,10 +5915,10 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C54" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5937,10 +5926,10 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C55" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5948,10 +5937,10 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C56" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5959,10 +5948,10 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C57" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5970,10 +5959,10 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C58" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5981,10 +5970,10 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C59" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5992,10 +5981,10 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C60" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6003,10 +5992,10 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C61" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6014,10 +6003,10 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
+        <v>649</v>
+      </c>
+      <c r="C62" t="s">
         <v>651</v>
-      </c>
-      <c r="C62" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -6025,10 +6014,10 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
+        <v>650</v>
+      </c>
+      <c r="C63" t="s">
         <v>652</v>
-      </c>
-      <c r="C63" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -6036,10 +6025,10 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C64" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -6047,10 +6036,10 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C65" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -6058,10 +6047,10 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C66" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -6069,10 +6058,10 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -6080,10 +6069,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C68" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -6091,10 +6080,10 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C69" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -6102,10 +6091,10 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C70" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -6113,10 +6102,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C71" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -6124,21 +6113,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C72" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>36</v>
-      </c>
-      <c r="B73" t="s">
-        <v>676</v>
-      </c>
-      <c r="C73" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -6161,31 +6139,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
         <v>283</v>
-      </c>
-      <c r="B3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>219</v>
@@ -6193,31 +6171,31 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
         <v>221</v>
@@ -6225,31 +6203,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" t="s">
         <v>288</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>225</v>
@@ -6257,7 +6235,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
         <v>227</v>
@@ -6265,7 +6243,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
         <v>228</v>
@@ -6273,15 +6251,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>230</v>
@@ -6289,10 +6267,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -6300,7 +6278,7 @@
         <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -6340,7 +6318,7 @@
         <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -6353,26 +6331,26 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6380,7 +6358,7 @@
         <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,7 +6366,7 @@
         <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -6396,7 +6374,7 @@
         <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -6404,7 +6382,7 @@
         <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -6412,7 +6390,7 @@
         <v>236</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -6420,7 +6398,7 @@
         <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -6428,7 +6406,7 @@
         <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -6436,7 +6414,7 @@
         <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -6444,7 +6422,7 @@
         <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6452,7 +6430,7 @@
         <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6460,7 +6438,7 @@
         <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6468,7 +6446,7 @@
         <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6476,7 +6454,7 @@
         <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6484,263 +6462,263 @@
         <v>238</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B56" t="s">
         <v>340</v>
-      </c>
-      <c r="B56" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6752,72 +6730,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37008-7EF0-48F4-B41A-7A9922CF3695}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView zoomScale="71" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="14"/>
-    <col min="4" max="4" width="46.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" t="s">
         <v>692</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2">
+        <v>513</v>
+      </c>
+      <c r="D2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" t="s">
         <v>693</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C3">
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="C4">
         <v>513</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="D4" t="s">
         <v>696</v>
-      </c>
-      <c r="C3" s="14">
-        <v>513</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="C4" s="14">
-        <v>513</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -6976,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6990,7 +6967,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7032,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7088,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7298,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7382,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -7396,7 +7373,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -7410,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -7522,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -7536,7 +7513,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -7550,7 +7527,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -7564,7 +7541,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -7578,7 +7555,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -7592,7 +7569,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -7606,7 +7583,7 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -7704,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -7734,7 +7711,7 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7745,7 +7722,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,7 +7733,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,7 +7744,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7778,7 +7755,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,7 +7766,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,7 +7777,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7811,7 +7788,7 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7822,7 +7799,7 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7833,7 +7810,7 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7841,10 +7818,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C11" t="s">
         <v>687</v>
-      </c>
-      <c r="C11" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7855,7 +7832,7 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7863,10 +7840,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C13" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
